--- a/Documentacion/Product backlog/Product Backlog v1.2/Historias Técnicas versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Historias Técnicas versión 1.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsaet\OneDrive\Escritorio\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BC02CC-085E-410F-935D-58F0895D3459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48B36F1-C56E-4621-BF5A-C90FB5D884DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +463,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79393"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -577,10 +589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -593,6 +602,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -610,6 +622,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,6 +650,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF79393"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -917,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DBEB7-C3D2-4473-9B85-4CF26F3AA489}">
   <dimension ref="B1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +984,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="18"/>
-      <c r="I1" s="12"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
@@ -956,41 +994,41 @@
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="12"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:9" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
@@ -1003,391 +1041,391 @@
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24" t="s">
         <v>82</v>
       </c>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="24" t="s">
         <v>83</v>
       </c>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24" t="s">
         <v>84</v>
       </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="24" t="s">
         <v>85</v>
       </c>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="24" t="s">
         <v>87</v>
       </c>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24" t="s">
         <v>88</v>
       </c>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="24" t="s">
         <v>89</v>
       </c>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="24" t="s">
         <v>90</v>
       </c>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24" t="s">
         <v>91</v>
       </c>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="24" t="s">
         <v>92</v>
       </c>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24" t="s">
         <v>93</v>
       </c>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="24" t="s">
         <v>94</v>
       </c>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="24" t="s">
         <v>95</v>
       </c>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="9" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24" t="s">
         <v>96</v>
       </c>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="24" t="s">
         <v>97</v>
       </c>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="24" t="s">
         <v>98</v>
       </c>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="28" t="s">
         <v>99</v>
       </c>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="9" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28" t="s">
         <v>100</v>
       </c>
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -1411,7 +1449,7 @@
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>75</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -1435,7 +1473,7 @@
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -1462,19 +1500,19 @@
       <c r="B29" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="15" t="s">
         <v>108</v>
       </c>
       <c r="H29" s="9" t="s">
@@ -1484,11 +1522,11 @@
     </row>
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
       <c r="H30" s="9" t="s">
         <v>110</v>
       </c>
@@ -1810,18 +1848,36 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="B12:B13"/>
@@ -1835,36 +1891,18 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Historias Técnicas versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Historias Técnicas versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsaet\OneDrive\Escritorio\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48B36F1-C56E-4621-BF5A-C90FB5D884DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3FBE69-EDF4-4508-9259-FD96B6F5EBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="148">
   <si>
     <t>Columna</t>
   </si>
@@ -291,66 +291,18 @@
     <t>Crear validaciones para evitar que se vendan productos sin stock o que los inventarios se desactualicen.</t>
   </si>
   <si>
-    <t>- Las tablas deben crearse correctamente según el diseño.</t>
-  </si>
-  <si>
-    <t>- El esquema debe reflejar relaciones adecuadas entre las entidades.</t>
-  </si>
-  <si>
-    <t>- Prisma debe conectarse correctamente a la base de datos.</t>
-  </si>
-  <si>
-    <t>- Las consultas básicas deben ejecutarse sin errores.</t>
-  </si>
-  <si>
-    <t>- El modelo de usuarios debe reflejar correctamente las columnas definidas.</t>
-  </si>
-  <si>
-    <t>- Las validaciones deben prevenir datos inconsistentes.</t>
-  </si>
-  <si>
-    <t>- El modelo debe permitir operaciones CRUD completas.</t>
-  </si>
-  <si>
-    <t>- Los precios y categorías deben registrarse adecuadamente.</t>
-  </si>
-  <si>
     <t>- El modelo debe permitir asociar correctamente productos a categorías.</t>
   </si>
   <si>
-    <t>- Las funciones CRUD deben operar correctamente en la tabla de usuarios.</t>
-  </si>
-  <si>
-    <t>- Incluir validaciones para operaciones de escritura.</t>
-  </si>
-  <si>
-    <t>- Los productos deben ser manipulados correctamente en la base de datos.</t>
-  </si>
-  <si>
-    <t>- Validar que los datos sean consistentes en cada operación.</t>
-  </si>
-  <si>
     <t>- Las categorías deben ser gestionadas correctamente desde la base de datos.</t>
   </si>
   <si>
-    <t>- Las promociones deben ser creadas, editadas y eliminadas correctamente.</t>
-  </si>
-  <si>
-    <t>- Validar que las reglas promocionales sean consistentes.</t>
-  </si>
-  <si>
     <t>- Los carritos deben poder contener productos con cantidades y precios precisos.</t>
   </si>
   <si>
     <t>- El stock debe disminuir o impedir la operación si no es suficiente.</t>
   </si>
   <si>
-    <t>- Un pedido no debe poder registrarse si algún dato es inválido.</t>
-  </si>
-  <si>
-    <t>- Validar correctamente la disponibilidad de stock.</t>
-  </si>
-  <si>
     <t>- Todas las operaciones del carrito deben ejecutarse sin errores.</t>
   </si>
   <si>
@@ -369,16 +321,175 @@
     <t>Implementar auditoría del sistema</t>
   </si>
   <si>
-    <t>Diseñar e implementar un módulo que registre las actividades principales del sistema (altas, modificaciones, eliminaciones) para garantizar trazabilidad y seguridad.</t>
-  </si>
-  <si>
     <t>HT-001, HT-006</t>
   </si>
   <si>
-    <t>- El sistema debe registrar eventos críticos en un log seguro.</t>
-  </si>
-  <si>
-    <t>- Los registros deben incluir usuario, fecha, hora, y acción realizada.</t>
+    <t>- Las tablas deben crearse correctamente según el diseño. - El esquema debe reflejar relaciones adecuadas entre las entidades.</t>
+  </si>
+  <si>
+    <t>- Prisma debe conectarse correctamente a la base de datos. - Las consultas básicas deben ejecutarse sin errores.</t>
+  </si>
+  <si>
+    <t>- El modelo de usuarios debe reflejar correctamente las columnas definidas. - Las validaciones deben prevenir datos inconsistentes.</t>
+  </si>
+  <si>
+    <t>- El modelo debe permitir operaciones CRUD completas. - Los precios y categorías deben registrarse adecuadamente.</t>
+  </si>
+  <si>
+    <t>- Las funciones CRUD deben operar correctamente en la tabla de usuarios. - Incluir validaciones para operaciones de escritura.</t>
+  </si>
+  <si>
+    <t>- Los productos deben ser manipulados correctamente en la base de datos. - Validar que los datos sean consistentes en cada operación.</t>
+  </si>
+  <si>
+    <t>- Las promociones deben ser creadas, editadas y eliminadas correctamente. - Validar que las reglas promocionales sean consistentes.</t>
+  </si>
+  <si>
+    <t>- Un pedido no debe poder registrarse si algún dato es inválido. - Validar correctamente la disponibilidad de stock.</t>
+  </si>
+  <si>
+    <t>HT-029</t>
+  </si>
+  <si>
+    <t>Implementar lógica para métodos de pago</t>
+  </si>
+  <si>
+    <t>Crear lógica para registrar, validar y seleccionar métodos de pago.</t>
+  </si>
+  <si>
+    <t>HU-010</t>
+  </si>
+  <si>
+    <t>- Los métodos de pago deben reflejarse correctamente. - Validar información segura antes de procesar el pago.</t>
+  </si>
+  <si>
+    <t>HT-030</t>
+  </si>
+  <si>
+    <t>Implementar lógica para métodos de envío</t>
+  </si>
+  <si>
+    <t>Crear lógica para registrar y seleccionar métodos de envío.</t>
+  </si>
+  <si>
+    <t>HU-012</t>
+  </si>
+  <si>
+    <t>- Los métodos de envío deben mostrarse y validarse correctamente. - Reflejar el método seleccionado en el pedido final.</t>
+  </si>
+  <si>
+    <t>HT-031</t>
+  </si>
+  <si>
+    <t>Probar la integración de métodos</t>
+  </si>
+  <si>
+    <t>Validar que los métodos de pago y envío funcionen correctamente durante el proceso de pedido.</t>
+  </si>
+  <si>
+    <t>2 horas</t>
+  </si>
+  <si>
+    <t>HT-029, HT-030</t>
+  </si>
+  <si>
+    <t>- Confirmar que la lógica de pago y envío se integra sin errores. - Validar que el pedido se procesa con los datos correctos.</t>
+  </si>
+  <si>
+    <t>HT-033</t>
+  </si>
+  <si>
+    <t>Implementar lógica para estados de pedidos</t>
+  </si>
+  <si>
+    <t>Crear lógica para gestionar los estados de un pedido, desde "Procesando" hasta "Entregado".</t>
+  </si>
+  <si>
+    <t>HU-007</t>
+  </si>
+  <si>
+    <t>- Los estados deben reflejar correctamente el progreso del pedido. - Validar que los cambios se notifican al cliente.</t>
+  </si>
+  <si>
+    <t>HT-034</t>
+  </si>
+  <si>
+    <t>Implementar lógica para estados de devoluciones</t>
+  </si>
+  <si>
+    <t>Crear lógica para gestionar los estados de una devolución ("Pendiente", "Aceptada", "Rechazada").</t>
+  </si>
+  <si>
+    <t>HU-008</t>
+  </si>
+  <si>
+    <t>- Validar que los estados de devoluciones se registran y notifican correctamente. - Confirmar que se actualizan en tiempo real.</t>
+  </si>
+  <si>
+    <t>HT-035</t>
+  </si>
+  <si>
+    <t>Diseñar notificaciones basadas en estados</t>
+  </si>
+  <si>
+    <t>Crear sistema de notificaciones para informar a los clientes sobre cambios en pedidos y devoluciones.</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>HT-033, HT-034</t>
+  </si>
+  <si>
+    <t>- Validar que las notificaciones se envían y contienen información correcta. - Confirmar la entrega en tiempo adecuado.</t>
+  </si>
+  <si>
+    <t>HT-041</t>
+  </si>
+  <si>
+    <t>Implementar pruebas de carga</t>
+  </si>
+  <si>
+    <t>Ejecutar pruebas de carga en las principales funcionalidades del sistema (registro, carrito, pedidos).</t>
+  </si>
+  <si>
+    <t>Todas las anteriores</t>
+  </si>
+  <si>
+    <t>- Validar que el sistema soporte múltiples usuarios concurrentes. - Medir tiempos de respuesta aceptables bajo carga.</t>
+  </si>
+  <si>
+    <t>HT-042</t>
+  </si>
+  <si>
+    <t>Probar la integración entre capas</t>
+  </si>
+  <si>
+    <t>Validar la correcta interacción entre las diferentes capas del sistema (base de datos, lógica y presentación).</t>
+  </si>
+  <si>
+    <t>- Confirmar que las capas interactúan sin errores. - Validar las funciones y endpoints principales.</t>
+  </si>
+  <si>
+    <t>HT-043</t>
+  </si>
+  <si>
+    <t>Documentar casos de prueba realizados</t>
+  </si>
+  <si>
+    <t>Crear documentación detallada de las pruebas realizadas en el sistema.</t>
+  </si>
+  <si>
+    <t>HT-041, HT-042</t>
+  </si>
+  <si>
+    <t>- La documentación debe incluir resultados, problemas encontrados y soluciones aplicadas.</t>
+  </si>
+  <si>
+    <t>Diseñar un módulo de auditoría que registre actividades críticas del sistema (altas, modificaciones y eliminaciones).</t>
+  </si>
+  <si>
+    <t>- Registrar acciones realizadas por los usuarios con fecha, hora y detalles. - Validar acceso seguro a los registros de auditoría.</t>
   </si>
 </sst>
 </file>
@@ -441,7 +552,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,18 +574,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79393"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -596,15 +695,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -622,27 +712,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DBEB7-C3D2-4473-9B85-4CF26F3AA489}">
   <dimension ref="B1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,25 +1044,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -1026,7 +1095,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="I4" s="10"/>
     </row>
@@ -1041,494 +1110,602 @@
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24" t="s">
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="23" t="s">
+      <c r="H14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="24" t="s">
+      <c r="F18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24" t="s">
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="24" t="s">
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="24" t="s">
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="24" t="s">
+      <c r="C30" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24" t="s">
+      <c r="D30" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="9" t="s">
-        <v>110</v>
+      <c r="H30" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="I30" s="9"/>
     </row>
@@ -1847,62 +2024,8 @@
       <c r="I61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
+  <mergeCells count="1">
     <mergeCell ref="B1:H2"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Historias Técnicas versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Historias Técnicas versión 1.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsaet\OneDrive\Escritorio\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3FBE69-EDF4-4508-9259-FD96B6F5EBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E403A625-9504-45DB-97A4-82B5B7539A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="3" r:id="rId1"/>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DBEB7-C3D2-4473-9B85-4CF26F3AA489}">
   <dimension ref="B1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,601 +1110,601 @@
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="9" t="s">
         <v>92</v>
       </c>
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="9" t="s">
         <v>93</v>
       </c>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="9" t="s">
         <v>94</v>
       </c>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="9" t="s">
         <v>95</v>
       </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="9" t="s">
         <v>81</v>
       </c>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="9" t="s">
         <v>96</v>
       </c>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="9" t="s">
         <v>97</v>
       </c>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="9" t="s">
         <v>82</v>
       </c>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="9" t="s">
         <v>98</v>
       </c>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="9" t="s">
         <v>83</v>
       </c>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="9" t="s">
         <v>84</v>
       </c>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="9" t="s">
         <v>99</v>
       </c>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="F18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="9" t="s">
         <v>85</v>
       </c>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="F19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="9" t="s">
         <v>86</v>
       </c>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="F20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="9" t="s">
         <v>87</v>
       </c>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="9" t="s">
         <v>104</v>
       </c>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="F22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="9" t="s">
         <v>109</v>
       </c>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="F23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="9" t="s">
         <v>115</v>
       </c>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="F24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="9" t="s">
         <v>120</v>
       </c>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="F25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="9" t="s">
         <v>125</v>
       </c>
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="9" t="s">
         <v>131</v>
       </c>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="F27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="9" t="s">
         <v>136</v>
       </c>
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="6" t="s">
+      <c r="F28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="9" t="s">
         <v>140</v>
       </c>
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="9" t="s">
         <v>145</v>
       </c>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="9" t="s">
         <v>147</v>
       </c>
       <c r="I30" s="9"/>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Historias Técnicas versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Historias Técnicas versión 1.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsaet\OneDrive\Escritorio\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECC2027-4A16-402B-9D94-419F1BB497F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0061F9DD-6402-40DD-8754-83BF19184ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="3" r:id="rId1"/>
@@ -778,7 +778,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1150,22 +1150,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1194,18 +1206,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1545,11 +1545,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DBEB7-C3D2-4473-9B85-4CF26F3AA489}">
   <dimension ref="B1:AJ135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="B44:H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="7" customWidth="1"/>
@@ -1564,18 +1564,18 @@
     <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:36" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+    <row r="1" spans="2:36" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:36" ht="36" customHeight="1">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -1603,15 +1603,15 @@
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
     </row>
-    <row r="3" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
+    <row r="3" spans="2:36" ht="21" customHeight="1">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -1639,15 +1639,15 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
     </row>
-    <row r="4" spans="2:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
+    <row r="4" spans="2:36" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -1675,7 +1675,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
     </row>
-    <row r="5" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:36" ht="18.75" thickBot="1">
       <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
@@ -1727,23 +1727,23 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
     </row>
-    <row r="6" spans="2:36" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:36" ht="51.75" customHeight="1" thickBot="1">
+      <c r="B6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="27" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -1779,13 +1779,13 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
     </row>
-    <row r="7" spans="2:36" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+    <row r="7" spans="2:36" ht="45" customHeight="1" thickBot="1">
+      <c r="B7" s="20"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="15" t="s">
         <v>121</v>
       </c>
@@ -1819,23 +1819,23 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
     </row>
-    <row r="8" spans="2:36" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="2:36" ht="48" customHeight="1" thickBot="1">
+      <c r="B8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="15" t="s">
@@ -1871,13 +1871,13 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
     </row>
-    <row r="9" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+    <row r="9" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B9" s="20"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="15" t="s">
         <v>123</v>
       </c>
@@ -1911,23 +1911,23 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
     </row>
-    <row r="10" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+    <row r="10" spans="2:36" ht="36.75" thickBot="1">
+      <c r="B10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="19" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="15" t="s">
@@ -1963,13 +1963,13 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
     </row>
-    <row r="11" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+    <row r="11" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B11" s="20"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="15" t="s">
         <v>125</v>
       </c>
@@ -2003,23 +2003,23 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
     </row>
-    <row r="12" spans="2:36" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="2:36" ht="48" customHeight="1" thickBot="1">
+      <c r="B12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="19" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="15" t="s">
@@ -2055,13 +2055,13 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
     </row>
-    <row r="13" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+    <row r="13" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B13" s="20"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="15" t="s">
         <v>127</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
     </row>
-    <row r="14" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:36" ht="36.75" thickBot="1">
       <c r="B14" s="14" t="s">
         <v>31</v>
       </c>
@@ -2147,23 +2147,23 @@
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
     </row>
-    <row r="15" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="2:36" ht="36.75" thickBot="1">
+      <c r="B15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="19" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="15" t="s">
@@ -2199,13 +2199,13 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
     </row>
-    <row r="16" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+    <row r="16" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B16" s="20"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="15" t="s">
         <v>129</v>
       </c>
@@ -2239,23 +2239,23 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
     </row>
-    <row r="17" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="19" t="s">
+    <row r="17" spans="2:36" ht="36.75" thickBot="1">
+      <c r="B17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="19" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="15" t="s">
@@ -2291,13 +2291,13 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
     </row>
-    <row r="18" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+    <row r="18" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B18" s="20"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="15" t="s">
         <v>131</v>
       </c>
@@ -2331,7 +2331,7 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
     </row>
-    <row r="19" spans="2:36" ht="66" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:36" ht="36.75" thickBot="1">
       <c r="B19" s="14" t="s">
         <v>34</v>
       </c>
@@ -2383,23 +2383,23 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
     </row>
-    <row r="20" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
+    <row r="20" spans="2:36" ht="36.75" thickBot="1">
+      <c r="B20" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="19" t="s">
         <v>28</v>
       </c>
       <c r="H20" s="15" t="s">
@@ -2435,13 +2435,13 @@
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
     </row>
-    <row r="21" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+    <row r="21" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B21" s="20"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="15" t="s">
         <v>133</v>
       </c>
@@ -2475,7 +2475,7 @@
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
     </row>
-    <row r="22" spans="2:36" ht="66" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:36" ht="36.75" thickBot="1">
       <c r="B22" s="14" t="s">
         <v>36</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
     </row>
-    <row r="23" spans="2:36" ht="87.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:36" ht="54.75" thickBot="1">
       <c r="B23" s="14" t="s">
         <v>37</v>
       </c>
@@ -2579,23 +2579,23 @@
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
     </row>
-    <row r="24" spans="2:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="19" t="s">
+    <row r="24" spans="2:36" ht="30" customHeight="1" thickBot="1">
+      <c r="B24" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="19" t="s">
         <v>68</v>
       </c>
       <c r="H24" s="15" t="s">
@@ -2631,13 +2631,13 @@
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
     </row>
-    <row r="25" spans="2:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="19"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+    <row r="25" spans="2:36" ht="30" customHeight="1" thickBot="1">
+      <c r="B25" s="20"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="15" t="s">
         <v>135</v>
       </c>
@@ -2671,7 +2671,7 @@
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
     </row>
-    <row r="26" spans="2:36" ht="87.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:36" ht="36.75" thickBot="1">
       <c r="B26" s="14" t="s">
         <v>69</v>
       </c>
@@ -2723,23 +2723,23 @@
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
     </row>
-    <row r="27" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="19" t="s">
+    <row r="27" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B27" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="19" t="s">
         <v>151</v>
       </c>
       <c r="H27" s="15" t="s">
@@ -2775,13 +2775,13 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
     </row>
-    <row r="28" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+    <row r="28" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B28" s="20"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="15" t="s">
         <v>153</v>
       </c>
@@ -2815,23 +2815,23 @@
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
     </row>
-    <row r="29" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="19" t="s">
+    <row r="29" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B29" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="19" t="s">
         <v>157</v>
       </c>
       <c r="H29" s="15" t="s">
@@ -2867,13 +2867,13 @@
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
     </row>
-    <row r="30" spans="2:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="19"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+    <row r="30" spans="2:36" ht="30" customHeight="1" thickBot="1">
+      <c r="B30" s="20"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="15" t="s">
         <v>159</v>
       </c>
@@ -2907,23 +2907,23 @@
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
     </row>
-    <row r="31" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="s">
+    <row r="31" spans="2:36" ht="36.75" thickBot="1">
+      <c r="B31" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="19" t="s">
         <v>163</v>
       </c>
       <c r="H31" s="15" t="s">
@@ -2959,13 +2959,13 @@
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
     </row>
-    <row r="32" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="19"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
+    <row r="32" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B32" s="20"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="15" t="s">
         <v>165</v>
       </c>
@@ -2999,23 +2999,23 @@
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
     </row>
-    <row r="33" spans="2:36" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="19" t="s">
+    <row r="33" spans="2:36" ht="45" customHeight="1" thickBot="1">
+      <c r="B33" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="19" t="s">
         <v>169</v>
       </c>
       <c r="H33" s="15" t="s">
@@ -3051,13 +3051,13 @@
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
     </row>
-    <row r="34" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="19"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+    <row r="34" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B34" s="20"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="15" t="s">
         <v>171</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6"/>
     </row>
-    <row r="35" spans="2:36" ht="66" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:36" ht="36.75" thickBot="1">
       <c r="B35" s="14" t="s">
         <v>172</v>
       </c>
@@ -3143,23 +3143,23 @@
       <c r="AI35" s="6"/>
       <c r="AJ35" s="6"/>
     </row>
-    <row r="36" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="19" t="s">
+    <row r="36" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B36" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="19" t="s">
         <v>180</v>
       </c>
       <c r="H36" s="15" t="s">
@@ -3195,13 +3195,13 @@
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
     </row>
-    <row r="37" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="19"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
+    <row r="37" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B37" s="20"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
       <c r="H37" s="15" t="s">
         <v>182</v>
       </c>
@@ -3235,7 +3235,7 @@
       <c r="AI37" s="6"/>
       <c r="AJ37" s="6"/>
     </row>
-    <row r="38" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:36" ht="36.75" thickBot="1">
       <c r="B38" s="14" t="s">
         <v>72</v>
       </c>
@@ -3287,7 +3287,7 @@
       <c r="AI38" s="6"/>
       <c r="AJ38" s="6"/>
     </row>
-    <row r="39" spans="2:36" ht="66" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:36" ht="36.75" thickBot="1">
       <c r="B39" s="14" t="s">
         <v>75</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="G39" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="36" t="s">
+      <c r="H39" s="18" t="s">
         <v>84</v>
       </c>
       <c r="I39" s="13" t="b">
@@ -3339,23 +3339,23 @@
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
     </row>
-    <row r="40" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="19" t="s">
+    <row r="40" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B40" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="19" t="s">
         <v>92</v>
       </c>
       <c r="H40" s="15" t="s">
@@ -3391,13 +3391,13 @@
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6"/>
     </row>
-    <row r="41" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="19"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
+    <row r="41" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B41" s="20"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
       <c r="H41" s="15" t="s">
         <v>137</v>
       </c>
@@ -3431,23 +3431,23 @@
       <c r="AI41" s="6"/>
       <c r="AJ41" s="6"/>
     </row>
-    <row r="42" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="19" t="s">
+    <row r="42" spans="2:36" ht="36.75" thickBot="1">
+      <c r="B42" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="19" t="s">
         <v>96</v>
       </c>
       <c r="H42" s="15" t="s">
@@ -3483,13 +3483,13 @@
       <c r="AI42" s="6"/>
       <c r="AJ42" s="6"/>
     </row>
-    <row r="43" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="19"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
+    <row r="43" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B43" s="20"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
       <c r="H43" s="15" t="s">
         <v>139</v>
       </c>
@@ -3523,23 +3523,23 @@
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6"/>
     </row>
-    <row r="44" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="19" t="s">
+    <row r="44" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B44" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="G44" s="19" t="s">
         <v>101</v>
       </c>
       <c r="H44" s="15" t="s">
@@ -3575,13 +3575,13 @@
       <c r="AI44" s="6"/>
       <c r="AJ44" s="6"/>
     </row>
-    <row r="45" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="19"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
+    <row r="45" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B45" s="20"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
       <c r="H45" s="15" t="s">
         <v>141</v>
       </c>
@@ -3615,23 +3615,23 @@
       <c r="AI45" s="6"/>
       <c r="AJ45" s="6"/>
     </row>
-    <row r="46" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="19" t="s">
+    <row r="46" spans="2:36" ht="36.75" thickBot="1">
+      <c r="B46" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="19" t="s">
         <v>105</v>
       </c>
       <c r="H46" s="15" t="s">
@@ -3667,13 +3667,13 @@
       <c r="AI46" s="6"/>
       <c r="AJ46" s="6"/>
     </row>
-    <row r="47" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="19"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
+    <row r="47" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B47" s="20"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
       <c r="H47" s="15" t="s">
         <v>143</v>
       </c>
@@ -3707,23 +3707,23 @@
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6"/>
     </row>
-    <row r="48" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="19" t="s">
+    <row r="48" spans="2:36" ht="36.75" thickBot="1">
+      <c r="B48" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G48" s="19" t="s">
         <v>108</v>
       </c>
       <c r="H48" s="15" t="s">
@@ -3759,13 +3759,13 @@
       <c r="AI48" s="6"/>
       <c r="AJ48" s="6"/>
     </row>
-    <row r="49" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="19"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
+    <row r="49" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B49" s="20"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
       <c r="H49" s="15" t="s">
         <v>145</v>
       </c>
@@ -3799,26 +3799,26 @@
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
     </row>
-    <row r="50" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="19" t="s">
+    <row r="50" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B50" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="F50" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="G50" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="H50" s="36" t="s">
+      <c r="H50" s="18" t="s">
         <v>191</v>
       </c>
       <c r="I50" s="13" t="b">
@@ -3851,13 +3851,13 @@
       <c r="AI50" s="6"/>
       <c r="AJ50" s="6"/>
     </row>
-    <row r="51" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="19"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
+    <row r="51" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B51" s="20"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
       <c r="H51" s="15" t="s">
         <v>192</v>
       </c>
@@ -3891,23 +3891,23 @@
       <c r="AI51" s="6"/>
       <c r="AJ51" s="6"/>
     </row>
-    <row r="52" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="19" t="s">
+    <row r="52" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B52" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G52" s="23" t="s">
+      <c r="G52" s="19" t="s">
         <v>112</v>
       </c>
       <c r="H52" s="15" t="s">
@@ -3943,13 +3943,13 @@
       <c r="AI52" s="6"/>
       <c r="AJ52" s="6"/>
     </row>
-    <row r="53" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="19"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
+    <row r="53" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B53" s="20"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
       <c r="H53" s="15" t="s">
         <v>147</v>
       </c>
@@ -3983,23 +3983,23 @@
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
     </row>
-    <row r="54" spans="2:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="19" t="s">
+    <row r="54" spans="2:36" ht="30" customHeight="1" thickBot="1">
+      <c r="B54" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F54" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="G54" s="19" t="s">
         <v>112</v>
       </c>
       <c r="H54" s="15" t="s">
@@ -4035,13 +4035,13 @@
       <c r="AI54" s="6"/>
       <c r="AJ54" s="6"/>
     </row>
-    <row r="55" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="19"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
+    <row r="55" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B55" s="20"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
       <c r="H55" s="15" t="s">
         <v>184</v>
       </c>
@@ -4075,7 +4075,7 @@
       <c r="AI55" s="6"/>
       <c r="AJ55" s="6"/>
     </row>
-    <row r="56" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:36" ht="36.75" thickBot="1">
       <c r="B56" s="14" t="s">
         <v>115</v>
       </c>
@@ -4127,23 +4127,23 @@
       <c r="AI56" s="6"/>
       <c r="AJ56" s="6"/>
     </row>
-    <row r="57" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="19" t="s">
+    <row r="57" spans="2:36" ht="36.75" thickBot="1">
+      <c r="B57" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="F57" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G57" s="23" t="s">
+      <c r="G57" s="19" t="s">
         <v>113</v>
       </c>
       <c r="H57" s="15" t="s">
@@ -4179,13 +4179,13 @@
       <c r="AI57" s="6"/>
       <c r="AJ57" s="6"/>
     </row>
-    <row r="58" spans="2:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="19"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
+    <row r="58" spans="2:36" ht="30" customHeight="1" thickBot="1">
+      <c r="B58" s="20"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
       <c r="H58" s="15" t="s">
         <v>199</v>
       </c>
@@ -4219,23 +4219,23 @@
       <c r="AI58" s="6"/>
       <c r="AJ58" s="6"/>
     </row>
-    <row r="59" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="19" t="s">
+    <row r="59" spans="2:36" ht="36.75" thickBot="1">
+      <c r="B59" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="G59" s="19" t="s">
         <v>41</v>
       </c>
       <c r="H59" s="15" t="s">
@@ -4271,13 +4271,13 @@
       <c r="AI59" s="6"/>
       <c r="AJ59" s="6"/>
     </row>
-    <row r="60" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="19"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
+    <row r="60" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B60" s="20"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
       <c r="H60" s="15" t="s">
         <v>204</v>
       </c>
@@ -4311,23 +4311,23 @@
       <c r="AI60" s="6"/>
       <c r="AJ60" s="6"/>
     </row>
-    <row r="61" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="19" t="s">
+    <row r="61" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B61" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="E61" s="23" t="s">
+      <c r="E61" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F61" s="23" t="s">
+      <c r="F61" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G61" s="23" t="s">
+      <c r="G61" s="19" t="s">
         <v>180</v>
       </c>
       <c r="H61" s="15" t="s">
@@ -4363,13 +4363,13 @@
       <c r="AI61" s="6"/>
       <c r="AJ61" s="6"/>
     </row>
-    <row r="62" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="19"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
+    <row r="62" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B62" s="20"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
       <c r="H62" s="15" t="s">
         <v>209</v>
       </c>
@@ -4403,23 +4403,23 @@
       <c r="AI62" s="6"/>
       <c r="AJ62" s="6"/>
     </row>
-    <row r="63" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="19" t="s">
+    <row r="63" spans="2:36" ht="36.75" thickBot="1">
+      <c r="B63" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="E63" s="23" t="s">
+      <c r="E63" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="F63" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G63" s="23" t="s">
+      <c r="G63" s="19" t="s">
         <v>112</v>
       </c>
       <c r="H63" s="15" t="s">
@@ -4455,13 +4455,13 @@
       <c r="AI63" s="6"/>
       <c r="AJ63" s="6"/>
     </row>
-    <row r="64" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="19"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
+    <row r="64" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B64" s="20"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
       <c r="H64" s="15" t="s">
         <v>214</v>
       </c>
@@ -4495,7 +4495,7 @@
       <c r="AI64" s="6"/>
       <c r="AJ64" s="6"/>
     </row>
-    <row r="65" spans="2:36" ht="66" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:36" ht="36.75" thickBot="1">
       <c r="B65" s="14" t="s">
         <v>215</v>
       </c>
@@ -4547,23 +4547,23 @@
       <c r="AI65" s="6"/>
       <c r="AJ65" s="6"/>
     </row>
-    <row r="66" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="19" t="s">
+    <row r="66" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B66" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="23" t="s">
+      <c r="E66" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F66" s="23" t="s">
+      <c r="F66" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G66" s="23" t="s">
+      <c r="G66" s="19" t="s">
         <v>112</v>
       </c>
       <c r="H66" s="15" t="s">
@@ -4599,13 +4599,13 @@
       <c r="AI66" s="6"/>
       <c r="AJ66" s="6"/>
     </row>
-    <row r="67" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="19"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
+    <row r="67" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B67" s="20"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
       <c r="H67" s="15" t="s">
         <v>223</v>
       </c>
@@ -4639,26 +4639,26 @@
       <c r="AI67" s="6"/>
       <c r="AJ67" s="6"/>
     </row>
-    <row r="68" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="19" t="s">
+    <row r="68" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B68" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="E68" s="23" t="s">
+      <c r="E68" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F68" s="23" t="s">
+      <c r="F68" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="23" t="s">
+      <c r="G68" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="H68" s="36" t="s">
+      <c r="H68" s="18" t="s">
         <v>227</v>
       </c>
       <c r="I68" s="13" t="b">
@@ -4691,14 +4691,14 @@
       <c r="AI68" s="6"/>
       <c r="AJ68" s="6"/>
     </row>
-    <row r="69" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="19"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="36" t="s">
+    <row r="69" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B69" s="20"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="18" t="s">
         <v>228</v>
       </c>
       <c r="I69" s="13" t="b">
@@ -4731,23 +4731,23 @@
       <c r="AI69" s="6"/>
       <c r="AJ69" s="6"/>
     </row>
-    <row r="70" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="19" t="s">
+    <row r="70" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B70" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="E70" s="23" t="s">
+      <c r="E70" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="23" t="s">
+      <c r="F70" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G70" s="23" t="s">
+      <c r="G70" s="19" t="s">
         <v>215</v>
       </c>
       <c r="H70" s="15" t="s">
@@ -4783,13 +4783,13 @@
       <c r="AI70" s="6"/>
       <c r="AJ70" s="6"/>
     </row>
-    <row r="71" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="19"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
+    <row r="71" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B71" s="20"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
       <c r="H71" s="15" t="s">
         <v>233</v>
       </c>
@@ -4823,23 +4823,23 @@
       <c r="AI71" s="6"/>
       <c r="AJ71" s="6"/>
     </row>
-    <row r="72" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="19" t="s">
+    <row r="72" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B72" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="E72" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G72" s="23" t="s">
+      <c r="G72" s="19" t="s">
         <v>112</v>
       </c>
       <c r="H72" s="15" t="s">
@@ -4875,13 +4875,13 @@
       <c r="AI72" s="6"/>
       <c r="AJ72" s="6"/>
     </row>
-    <row r="73" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="19"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
+    <row r="73" spans="2:36" ht="36.75" thickBot="1">
+      <c r="B73" s="20"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
       <c r="H73" s="15" t="s">
         <v>238</v>
       </c>
@@ -4915,23 +4915,23 @@
       <c r="AI73" s="6"/>
       <c r="AJ73" s="6"/>
     </row>
-    <row r="74" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="19" t="s">
+    <row r="74" spans="2:36" ht="36.75" thickBot="1">
+      <c r="B74" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D74" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="E74" s="23" t="s">
+      <c r="E74" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F74" s="23" t="s">
+      <c r="F74" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G74" s="23" t="s">
+      <c r="G74" s="19" t="s">
         <v>88</v>
       </c>
       <c r="H74" s="15" t="s">
@@ -4967,13 +4967,13 @@
       <c r="AI74" s="6"/>
       <c r="AJ74" s="6"/>
     </row>
-    <row r="75" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
+    <row r="75" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B75" s="21"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
       <c r="H75" s="17" t="s">
         <v>241</v>
       </c>
@@ -5007,7 +5007,7 @@
       <c r="AI75" s="6"/>
       <c r="AJ75" s="6"/>
     </row>
-    <row r="76" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:36">
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
@@ -5035,7 +5035,7 @@
       <c r="AI76" s="6"/>
       <c r="AJ76" s="6"/>
     </row>
-    <row r="77" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:36">
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
@@ -5063,7 +5063,7 @@
       <c r="AI77" s="6"/>
       <c r="AJ77" s="6"/>
     </row>
-    <row r="78" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:36">
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
@@ -5091,7 +5091,7 @@
       <c r="AI78" s="6"/>
       <c r="AJ78" s="6"/>
     </row>
-    <row r="79" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:36">
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
@@ -5119,7 +5119,7 @@
       <c r="AI79" s="6"/>
       <c r="AJ79" s="6"/>
     </row>
-    <row r="80" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:36">
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
@@ -5147,7 +5147,7 @@
       <c r="AI80" s="6"/>
       <c r="AJ80" s="6"/>
     </row>
-    <row r="81" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="11:36">
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
@@ -5175,7 +5175,7 @@
       <c r="AI81" s="6"/>
       <c r="AJ81" s="6"/>
     </row>
-    <row r="82" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="11:36">
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
@@ -5203,7 +5203,7 @@
       <c r="AI82" s="6"/>
       <c r="AJ82" s="6"/>
     </row>
-    <row r="83" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="11:36">
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
@@ -5231,7 +5231,7 @@
       <c r="AI83" s="6"/>
       <c r="AJ83" s="6"/>
     </row>
-    <row r="84" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="11:36">
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
@@ -5259,7 +5259,7 @@
       <c r="AI84" s="6"/>
       <c r="AJ84" s="6"/>
     </row>
-    <row r="85" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="11:36">
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
@@ -5287,7 +5287,7 @@
       <c r="AI85" s="6"/>
       <c r="AJ85" s="6"/>
     </row>
-    <row r="86" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="11:36">
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
@@ -5315,7 +5315,7 @@
       <c r="AI86" s="6"/>
       <c r="AJ86" s="6"/>
     </row>
-    <row r="87" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="11:36">
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
@@ -5343,7 +5343,7 @@
       <c r="AI87" s="6"/>
       <c r="AJ87" s="6"/>
     </row>
-    <row r="88" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="11:36">
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
@@ -5371,7 +5371,7 @@
       <c r="AI88" s="6"/>
       <c r="AJ88" s="6"/>
     </row>
-    <row r="89" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="11:36">
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
@@ -5399,7 +5399,7 @@
       <c r="AI89" s="6"/>
       <c r="AJ89" s="6"/>
     </row>
-    <row r="90" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="11:36">
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
@@ -5427,7 +5427,7 @@
       <c r="AI90" s="6"/>
       <c r="AJ90" s="6"/>
     </row>
-    <row r="91" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="11:36">
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
@@ -5455,7 +5455,7 @@
       <c r="AI91" s="6"/>
       <c r="AJ91" s="6"/>
     </row>
-    <row r="92" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="11:36">
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
@@ -5483,7 +5483,7 @@
       <c r="AI92" s="6"/>
       <c r="AJ92" s="6"/>
     </row>
-    <row r="93" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="11:36">
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
@@ -5511,7 +5511,7 @@
       <c r="AI93" s="6"/>
       <c r="AJ93" s="6"/>
     </row>
-    <row r="94" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="11:36">
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
@@ -5539,7 +5539,7 @@
       <c r="AI94" s="6"/>
       <c r="AJ94" s="6"/>
     </row>
-    <row r="95" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="11:36">
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
@@ -5567,7 +5567,7 @@
       <c r="AI95" s="6"/>
       <c r="AJ95" s="6"/>
     </row>
-    <row r="96" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="11:36">
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
@@ -5595,7 +5595,7 @@
       <c r="AI96" s="6"/>
       <c r="AJ96" s="6"/>
     </row>
-    <row r="97" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="11:36">
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
@@ -5623,7 +5623,7 @@
       <c r="AI97" s="6"/>
       <c r="AJ97" s="6"/>
     </row>
-    <row r="98" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="11:36">
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
@@ -5651,7 +5651,7 @@
       <c r="AI98" s="6"/>
       <c r="AJ98" s="6"/>
     </row>
-    <row r="99" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="11:36">
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
@@ -5679,7 +5679,7 @@
       <c r="AI99" s="6"/>
       <c r="AJ99" s="6"/>
     </row>
-    <row r="100" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="11:36">
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
@@ -5707,7 +5707,7 @@
       <c r="AI100" s="6"/>
       <c r="AJ100" s="6"/>
     </row>
-    <row r="101" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="11:36">
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
@@ -5735,7 +5735,7 @@
       <c r="AI101" s="6"/>
       <c r="AJ101" s="6"/>
     </row>
-    <row r="102" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="11:36">
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
@@ -5763,7 +5763,7 @@
       <c r="AI102" s="6"/>
       <c r="AJ102" s="6"/>
     </row>
-    <row r="103" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="11:36">
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
@@ -5791,7 +5791,7 @@
       <c r="AI103" s="6"/>
       <c r="AJ103" s="6"/>
     </row>
-    <row r="104" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="11:36">
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
@@ -5819,7 +5819,7 @@
       <c r="AI104" s="6"/>
       <c r="AJ104" s="6"/>
     </row>
-    <row r="105" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="11:36">
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
@@ -5847,7 +5847,7 @@
       <c r="AI105" s="6"/>
       <c r="AJ105" s="6"/>
     </row>
-    <row r="106" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="11:36">
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
@@ -5875,7 +5875,7 @@
       <c r="AI106" s="6"/>
       <c r="AJ106" s="6"/>
     </row>
-    <row r="107" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="11:36">
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
@@ -5903,7 +5903,7 @@
       <c r="AI107" s="6"/>
       <c r="AJ107" s="6"/>
     </row>
-    <row r="108" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="11:36">
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
@@ -5931,7 +5931,7 @@
       <c r="AI108" s="6"/>
       <c r="AJ108" s="6"/>
     </row>
-    <row r="109" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="11:36">
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
@@ -5959,7 +5959,7 @@
       <c r="AI109" s="6"/>
       <c r="AJ109" s="6"/>
     </row>
-    <row r="110" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="11:36">
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
@@ -5987,7 +5987,7 @@
       <c r="AI110" s="6"/>
       <c r="AJ110" s="6"/>
     </row>
-    <row r="111" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="11:36">
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
@@ -6015,7 +6015,7 @@
       <c r="AI111" s="6"/>
       <c r="AJ111" s="6"/>
     </row>
-    <row r="112" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="11:36">
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
@@ -6043,7 +6043,7 @@
       <c r="AI112" s="6"/>
       <c r="AJ112" s="6"/>
     </row>
-    <row r="113" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="11:36">
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
       <c r="M113" s="6"/>
@@ -6071,7 +6071,7 @@
       <c r="AI113" s="6"/>
       <c r="AJ113" s="6"/>
     </row>
-    <row r="114" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="11:36">
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
       <c r="M114" s="6"/>
@@ -6099,7 +6099,7 @@
       <c r="AI114" s="6"/>
       <c r="AJ114" s="6"/>
     </row>
-    <row r="115" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="11:36">
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
       <c r="M115" s="6"/>
@@ -6127,7 +6127,7 @@
       <c r="AI115" s="6"/>
       <c r="AJ115" s="6"/>
     </row>
-    <row r="116" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="11:36">
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
@@ -6155,7 +6155,7 @@
       <c r="AI116" s="6"/>
       <c r="AJ116" s="6"/>
     </row>
-    <row r="117" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="11:36">
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
       <c r="M117" s="6"/>
@@ -6183,7 +6183,7 @@
       <c r="AI117" s="6"/>
       <c r="AJ117" s="6"/>
     </row>
-    <row r="118" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="11:36">
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
@@ -6211,7 +6211,7 @@
       <c r="AI118" s="6"/>
       <c r="AJ118" s="6"/>
     </row>
-    <row r="119" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="11:36">
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
@@ -6239,7 +6239,7 @@
       <c r="AI119" s="6"/>
       <c r="AJ119" s="6"/>
     </row>
-    <row r="120" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="11:36">
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
@@ -6267,7 +6267,7 @@
       <c r="AI120" s="6"/>
       <c r="AJ120" s="6"/>
     </row>
-    <row r="121" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="11:36">
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
       <c r="M121" s="6"/>
@@ -6295,7 +6295,7 @@
       <c r="AI121" s="6"/>
       <c r="AJ121" s="6"/>
     </row>
-    <row r="122" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="11:36">
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
@@ -6323,7 +6323,7 @@
       <c r="AI122" s="6"/>
       <c r="AJ122" s="6"/>
     </row>
-    <row r="123" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="11:36">
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
@@ -6351,7 +6351,7 @@
       <c r="AI123" s="6"/>
       <c r="AJ123" s="6"/>
     </row>
-    <row r="124" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="11:36">
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
@@ -6379,7 +6379,7 @@
       <c r="AI124" s="6"/>
       <c r="AJ124" s="6"/>
     </row>
-    <row r="125" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="11:36">
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
@@ -6407,7 +6407,7 @@
       <c r="AI125" s="6"/>
       <c r="AJ125" s="6"/>
     </row>
-    <row r="126" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="11:36">
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
@@ -6435,7 +6435,7 @@
       <c r="AI126" s="6"/>
       <c r="AJ126" s="6"/>
     </row>
-    <row r="127" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="11:36">
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
       <c r="M127" s="6"/>
@@ -6463,7 +6463,7 @@
       <c r="AI127" s="6"/>
       <c r="AJ127" s="6"/>
     </row>
-    <row r="128" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="11:36">
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
       <c r="M128" s="6"/>
@@ -6491,7 +6491,7 @@
       <c r="AI128" s="6"/>
       <c r="AJ128" s="6"/>
     </row>
-    <row r="129" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="11:36">
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
@@ -6519,7 +6519,7 @@
       <c r="AI129" s="6"/>
       <c r="AJ129" s="6"/>
     </row>
-    <row r="130" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="11:36">
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
@@ -6547,7 +6547,7 @@
       <c r="AI130" s="6"/>
       <c r="AJ130" s="6"/>
     </row>
-    <row r="131" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="11:36">
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
       <c r="M131" s="6"/>
@@ -6575,7 +6575,7 @@
       <c r="AI131" s="6"/>
       <c r="AJ131" s="6"/>
     </row>
-    <row r="132" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="11:36">
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
       <c r="M132" s="6"/>
@@ -6603,7 +6603,7 @@
       <c r="AI132" s="6"/>
       <c r="AJ132" s="6"/>
     </row>
-    <row r="133" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="11:36">
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
       <c r="M133" s="6"/>
@@ -6631,7 +6631,7 @@
       <c r="AI133" s="6"/>
       <c r="AJ133" s="6"/>
     </row>
-    <row r="134" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="11:36">
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
       <c r="M134" s="6"/>
@@ -6659,7 +6659,7 @@
       <c r="AI134" s="6"/>
       <c r="AJ134" s="6"/>
     </row>
-    <row r="135" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="11:36">
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
       <c r="M135" s="6"/>
@@ -6689,168 +6689,6 @@
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -6870,6 +6708,168 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:I75">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -6889,7 +6889,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="2" customWidth="1"/>
@@ -6898,17 +6898,17 @@
     <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:3" ht="36">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" ht="21">
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="45">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="90">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="45">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="225">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="50.25" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="60">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="60">
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="30">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Historias Técnicas versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Historias Técnicas versión 1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0061F9DD-6402-40DD-8754-83BF19184ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A273C4-CD4F-45B8-95E4-781E80E94A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="3" r:id="rId1"/>
@@ -778,7 +778,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1153,31 +1153,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1206,6 +1197,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1546,10 +1546,10 @@
   <dimension ref="B1:AJ135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="B44:H45"/>
+      <selection activeCell="E44" sqref="E44:E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="7" customWidth="1"/>
@@ -1564,18 +1564,18 @@
     <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:36" ht="36" customHeight="1">
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:36" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -1603,15 +1603,15 @@
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
     </row>
-    <row r="3" spans="2:36" ht="21" customHeight="1">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
+    <row r="3" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -1639,15 +1639,15 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
     </row>
-    <row r="4" spans="2:36" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
+    <row r="4" spans="2:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -1675,7 +1675,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
     </row>
-    <row r="5" spans="2:36" ht="18.75" thickBot="1">
+    <row r="5" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
@@ -1727,23 +1727,23 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
     </row>
-    <row r="6" spans="2:36" ht="51.75" customHeight="1" thickBot="1">
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="2:36" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -1779,13 +1779,13 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
     </row>
-    <row r="7" spans="2:36" ht="45" customHeight="1" thickBot="1">
+    <row r="7" spans="2:36" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="20"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="15" t="s">
         <v>121</v>
       </c>
@@ -1819,7 +1819,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
     </row>
-    <row r="8" spans="2:36" ht="48" customHeight="1" thickBot="1">
+    <row r="8" spans="2:36" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
         <v>28</v>
       </c>
@@ -1829,13 +1829,13 @@
       <c r="D8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="24" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="15" t="s">
@@ -1871,13 +1871,13 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
     </row>
-    <row r="9" spans="2:36" ht="18.75" thickBot="1">
+    <row r="9" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="15" t="s">
         <v>123</v>
       </c>
@@ -1911,7 +1911,7 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
     </row>
-    <row r="10" spans="2:36" ht="36.75" thickBot="1">
+    <row r="10" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
         <v>29</v>
       </c>
@@ -1921,13 +1921,13 @@
       <c r="D10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="24" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="15" t="s">
@@ -1963,13 +1963,13 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
     </row>
-    <row r="11" spans="2:36" ht="18.75" thickBot="1">
+    <row r="11" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="15" t="s">
         <v>125</v>
       </c>
@@ -2003,7 +2003,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
     </row>
-    <row r="12" spans="2:36" ht="48" customHeight="1" thickBot="1">
+    <row r="12" spans="2:36" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>30</v>
       </c>
@@ -2013,13 +2013,13 @@
       <c r="D12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="24" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="15" t="s">
@@ -2055,13 +2055,13 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
     </row>
-    <row r="13" spans="2:36" ht="18.75" thickBot="1">
+    <row r="13" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="20"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="15" t="s">
         <v>127</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
     </row>
-    <row r="14" spans="2:36" ht="36.75" thickBot="1">
+    <row r="14" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>31</v>
       </c>
@@ -2147,7 +2147,7 @@
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
     </row>
-    <row r="15" spans="2:36" ht="36.75" thickBot="1">
+    <row r="15" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
         <v>32</v>
       </c>
@@ -2157,13 +2157,13 @@
       <c r="D15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="15" t="s">
@@ -2199,13 +2199,13 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
     </row>
-    <row r="16" spans="2:36" ht="18.75" thickBot="1">
+    <row r="16" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="20"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="15" t="s">
         <v>129</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
     </row>
-    <row r="17" spans="2:36" ht="36.75" thickBot="1">
+    <row r="17" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
         <v>33</v>
       </c>
@@ -2249,13 +2249,13 @@
       <c r="D17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="24" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="15" t="s">
@@ -2291,13 +2291,13 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
     </row>
-    <row r="18" spans="2:36" ht="18.75" thickBot="1">
+    <row r="18" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="20"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="15" t="s">
         <v>131</v>
       </c>
@@ -2331,7 +2331,7 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
     </row>
-    <row r="19" spans="2:36" ht="36.75" thickBot="1">
+    <row r="19" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>34</v>
       </c>
@@ -2383,7 +2383,7 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
     </row>
-    <row r="20" spans="2:36" ht="36.75" thickBot="1">
+    <row r="20" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="20" t="s">
         <v>35</v>
       </c>
@@ -2393,13 +2393,13 @@
       <c r="D20" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="24" t="s">
         <v>28</v>
       </c>
       <c r="H20" s="15" t="s">
@@ -2435,13 +2435,13 @@
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
     </row>
-    <row r="21" spans="2:36" ht="18.75" thickBot="1">
+    <row r="21" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="20"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="15" t="s">
         <v>133</v>
       </c>
@@ -2475,7 +2475,7 @@
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
     </row>
-    <row r="22" spans="2:36" ht="36.75" thickBot="1">
+    <row r="22" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>36</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
     </row>
-    <row r="23" spans="2:36" ht="54.75" thickBot="1">
+    <row r="23" spans="2:36" ht="66" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>37</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
     </row>
-    <row r="24" spans="2:36" ht="30" customHeight="1" thickBot="1">
+    <row r="24" spans="2:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="20" t="s">
         <v>38</v>
       </c>
@@ -2589,13 +2589,13 @@
       <c r="D24" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H24" s="15" t="s">
@@ -2631,13 +2631,13 @@
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
     </row>
-    <row r="25" spans="2:36" ht="30" customHeight="1" thickBot="1">
+    <row r="25" spans="2:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="20"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="15" t="s">
         <v>135</v>
       </c>
@@ -2671,7 +2671,7 @@
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
     </row>
-    <row r="26" spans="2:36" ht="36.75" thickBot="1">
+    <row r="26" spans="2:36" ht="66" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>69</v>
       </c>
@@ -2723,7 +2723,7 @@
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
     </row>
-    <row r="27" spans="2:36" ht="18.75" thickBot="1">
+    <row r="27" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="20" t="s">
         <v>148</v>
       </c>
@@ -2733,13 +2733,13 @@
       <c r="D27" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="24" t="s">
         <v>151</v>
       </c>
       <c r="H27" s="15" t="s">
@@ -2775,13 +2775,13 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
     </row>
-    <row r="28" spans="2:36" ht="18.75" thickBot="1">
+    <row r="28" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="20"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="15" t="s">
         <v>153</v>
       </c>
@@ -2815,7 +2815,7 @@
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
     </row>
-    <row r="29" spans="2:36" ht="18.75" thickBot="1">
+    <row r="29" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="20" t="s">
         <v>154</v>
       </c>
@@ -2825,13 +2825,13 @@
       <c r="D29" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="24" t="s">
         <v>157</v>
       </c>
       <c r="H29" s="15" t="s">
@@ -2867,13 +2867,13 @@
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
     </row>
-    <row r="30" spans="2:36" ht="30" customHeight="1" thickBot="1">
+    <row r="30" spans="2:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="15" t="s">
         <v>159</v>
       </c>
@@ -2907,7 +2907,7 @@
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
     </row>
-    <row r="31" spans="2:36" ht="36.75" thickBot="1">
+    <row r="31" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="20" t="s">
         <v>160</v>
       </c>
@@ -2917,13 +2917,13 @@
       <c r="D31" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="24" t="s">
         <v>163</v>
       </c>
       <c r="H31" s="15" t="s">
@@ -2959,13 +2959,13 @@
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
     </row>
-    <row r="32" spans="2:36" ht="18.75" thickBot="1">
+    <row r="32" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="20"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="15" t="s">
         <v>165</v>
       </c>
@@ -2999,7 +2999,7 @@
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
     </row>
-    <row r="33" spans="2:36" ht="45" customHeight="1" thickBot="1">
+    <row r="33" spans="2:36" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
         <v>166</v>
       </c>
@@ -3009,13 +3009,13 @@
       <c r="D33" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="24" t="s">
         <v>169</v>
       </c>
       <c r="H33" s="15" t="s">
@@ -3051,13 +3051,13 @@
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
     </row>
-    <row r="34" spans="2:36" ht="18.75" thickBot="1">
+    <row r="34" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="15" t="s">
         <v>171</v>
       </c>
@@ -3091,7 +3091,7 @@
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6"/>
     </row>
-    <row r="35" spans="2:36" ht="36.75" thickBot="1">
+    <row r="35" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>172</v>
       </c>
@@ -3143,7 +3143,7 @@
       <c r="AI35" s="6"/>
       <c r="AJ35" s="6"/>
     </row>
-    <row r="36" spans="2:36" ht="18.75" thickBot="1">
+    <row r="36" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="20" t="s">
         <v>177</v>
       </c>
@@ -3153,13 +3153,13 @@
       <c r="D36" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="24" t="s">
         <v>180</v>
       </c>
       <c r="H36" s="15" t="s">
@@ -3195,13 +3195,13 @@
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
     </row>
-    <row r="37" spans="2:36" ht="18.75" thickBot="1">
+    <row r="37" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="20"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="15" t="s">
         <v>182</v>
       </c>
@@ -3235,7 +3235,7 @@
       <c r="AI37" s="6"/>
       <c r="AJ37" s="6"/>
     </row>
-    <row r="38" spans="2:36" ht="36.75" thickBot="1">
+    <row r="38" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>72</v>
       </c>
@@ -3287,7 +3287,7 @@
       <c r="AI38" s="6"/>
       <c r="AJ38" s="6"/>
     </row>
-    <row r="39" spans="2:36" ht="36.75" thickBot="1">
+    <row r="39" spans="2:36" ht="66" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>75</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
     </row>
-    <row r="40" spans="2:36" ht="18.75" thickBot="1">
+    <row r="40" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="20" t="s">
         <v>89</v>
       </c>
@@ -3349,13 +3349,13 @@
       <c r="D40" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="24" t="s">
         <v>92</v>
       </c>
       <c r="H40" s="15" t="s">
@@ -3391,13 +3391,13 @@
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6"/>
     </row>
-    <row r="41" spans="2:36" ht="18.75" thickBot="1">
+    <row r="41" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="20"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="15" t="s">
         <v>137</v>
       </c>
@@ -3431,7 +3431,7 @@
       <c r="AI41" s="6"/>
       <c r="AJ41" s="6"/>
     </row>
-    <row r="42" spans="2:36" ht="36.75" thickBot="1">
+    <row r="42" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="20" t="s">
         <v>93</v>
       </c>
@@ -3441,13 +3441,13 @@
       <c r="D42" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="24" t="s">
         <v>96</v>
       </c>
       <c r="H42" s="15" t="s">
@@ -3483,13 +3483,13 @@
       <c r="AI42" s="6"/>
       <c r="AJ42" s="6"/>
     </row>
-    <row r="43" spans="2:36" ht="18.75" thickBot="1">
+    <row r="43" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="20"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
       <c r="H43" s="15" t="s">
         <v>139</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6"/>
     </row>
-    <row r="44" spans="2:36" ht="18.75" thickBot="1">
+    <row r="44" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="20" t="s">
         <v>98</v>
       </c>
@@ -3533,13 +3533,13 @@
       <c r="D44" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G44" s="24" t="s">
         <v>101</v>
       </c>
       <c r="H44" s="15" t="s">
@@ -3575,13 +3575,13 @@
       <c r="AI44" s="6"/>
       <c r="AJ44" s="6"/>
     </row>
-    <row r="45" spans="2:36" ht="18.75" thickBot="1">
+    <row r="45" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="20"/>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
       <c r="H45" s="15" t="s">
         <v>141</v>
       </c>
@@ -3615,7 +3615,7 @@
       <c r="AI45" s="6"/>
       <c r="AJ45" s="6"/>
     </row>
-    <row r="46" spans="2:36" ht="36.75" thickBot="1">
+    <row r="46" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="20" t="s">
         <v>102</v>
       </c>
@@ -3625,13 +3625,13 @@
       <c r="D46" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="19" t="s">
+      <c r="G46" s="24" t="s">
         <v>105</v>
       </c>
       <c r="H46" s="15" t="s">
@@ -3667,13 +3667,13 @@
       <c r="AI46" s="6"/>
       <c r="AJ46" s="6"/>
     </row>
-    <row r="47" spans="2:36" ht="18.75" thickBot="1">
+    <row r="47" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="20"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
       <c r="H47" s="15" t="s">
         <v>143</v>
       </c>
@@ -3707,7 +3707,7 @@
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6"/>
     </row>
-    <row r="48" spans="2:36" ht="36.75" thickBot="1">
+    <row r="48" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="20" t="s">
         <v>106</v>
       </c>
@@ -3717,13 +3717,13 @@
       <c r="D48" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="G48" s="24" t="s">
         <v>108</v>
       </c>
       <c r="H48" s="15" t="s">
@@ -3759,13 +3759,13 @@
       <c r="AI48" s="6"/>
       <c r="AJ48" s="6"/>
     </row>
-    <row r="49" spans="2:36" ht="18.75" thickBot="1">
+    <row r="49" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="20"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
       <c r="H49" s="15" t="s">
         <v>145</v>
       </c>
@@ -3799,7 +3799,7 @@
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
     </row>
-    <row r="50" spans="2:36" ht="18.75" thickBot="1">
+    <row r="50" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="20" t="s">
         <v>187</v>
       </c>
@@ -3809,13 +3809,13 @@
       <c r="D50" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="G50" s="24" t="s">
         <v>190</v>
       </c>
       <c r="H50" s="18" t="s">
@@ -3851,13 +3851,13 @@
       <c r="AI50" s="6"/>
       <c r="AJ50" s="6"/>
     </row>
-    <row r="51" spans="2:36" ht="18.75" thickBot="1">
+    <row r="51" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="20"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
       <c r="H51" s="15" t="s">
         <v>192</v>
       </c>
@@ -3891,7 +3891,7 @@
       <c r="AI51" s="6"/>
       <c r="AJ51" s="6"/>
     </row>
-    <row r="52" spans="2:36" ht="18.75" thickBot="1">
+    <row r="52" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="20" t="s">
         <v>109</v>
       </c>
@@ -3901,13 +3901,13 @@
       <c r="D52" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="24" t="s">
         <v>112</v>
       </c>
       <c r="H52" s="15" t="s">
@@ -3943,13 +3943,13 @@
       <c r="AI52" s="6"/>
       <c r="AJ52" s="6"/>
     </row>
-    <row r="53" spans="2:36" ht="18.75" thickBot="1">
+    <row r="53" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="20"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
       <c r="H53" s="15" t="s">
         <v>147</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
     </row>
-    <row r="54" spans="2:36" ht="30" customHeight="1" thickBot="1">
+    <row r="54" spans="2:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="20" t="s">
         <v>113</v>
       </c>
@@ -3993,13 +3993,13 @@
       <c r="D54" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="G54" s="24" t="s">
         <v>112</v>
       </c>
       <c r="H54" s="15" t="s">
@@ -4035,13 +4035,13 @@
       <c r="AI54" s="6"/>
       <c r="AJ54" s="6"/>
     </row>
-    <row r="55" spans="2:36" ht="18.75" thickBot="1">
+    <row r="55" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="20"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
       <c r="H55" s="15" t="s">
         <v>184</v>
       </c>
@@ -4075,7 +4075,7 @@
       <c r="AI55" s="6"/>
       <c r="AJ55" s="6"/>
     </row>
-    <row r="56" spans="2:36" ht="36.75" thickBot="1">
+    <row r="56" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
         <v>115</v>
       </c>
@@ -4127,7 +4127,7 @@
       <c r="AI56" s="6"/>
       <c r="AJ56" s="6"/>
     </row>
-    <row r="57" spans="2:36" ht="36.75" thickBot="1">
+    <row r="57" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="20" t="s">
         <v>195</v>
       </c>
@@ -4137,13 +4137,13 @@
       <c r="D57" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G57" s="19" t="s">
+      <c r="G57" s="24" t="s">
         <v>113</v>
       </c>
       <c r="H57" s="15" t="s">
@@ -4179,13 +4179,13 @@
       <c r="AI57" s="6"/>
       <c r="AJ57" s="6"/>
     </row>
-    <row r="58" spans="2:36" ht="30" customHeight="1" thickBot="1">
+    <row r="58" spans="2:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
       <c r="H58" s="15" t="s">
         <v>199</v>
       </c>
@@ -4219,7 +4219,7 @@
       <c r="AI58" s="6"/>
       <c r="AJ58" s="6"/>
     </row>
-    <row r="59" spans="2:36" ht="36.75" thickBot="1">
+    <row r="59" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="20" t="s">
         <v>200</v>
       </c>
@@ -4229,13 +4229,13 @@
       <c r="D59" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="19" t="s">
+      <c r="F59" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="19" t="s">
+      <c r="G59" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H59" s="15" t="s">
@@ -4271,13 +4271,13 @@
       <c r="AI59" s="6"/>
       <c r="AJ59" s="6"/>
     </row>
-    <row r="60" spans="2:36" ht="18.75" thickBot="1">
+    <row r="60" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="20"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
       <c r="H60" s="15" t="s">
         <v>204</v>
       </c>
@@ -4311,7 +4311,7 @@
       <c r="AI60" s="6"/>
       <c r="AJ60" s="6"/>
     </row>
-    <row r="61" spans="2:36" ht="18.75" thickBot="1">
+    <row r="61" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="20" t="s">
         <v>205</v>
       </c>
@@ -4321,13 +4321,13 @@
       <c r="D61" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="F61" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="G61" s="24" t="s">
         <v>180</v>
       </c>
       <c r="H61" s="15" t="s">
@@ -4363,13 +4363,13 @@
       <c r="AI61" s="6"/>
       <c r="AJ61" s="6"/>
     </row>
-    <row r="62" spans="2:36" ht="18.75" thickBot="1">
+    <row r="62" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="20"/>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
       <c r="H62" s="15" t="s">
         <v>209</v>
       </c>
@@ -4403,7 +4403,7 @@
       <c r="AI62" s="6"/>
       <c r="AJ62" s="6"/>
     </row>
-    <row r="63" spans="2:36" ht="36.75" thickBot="1">
+    <row r="63" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="20" t="s">
         <v>210</v>
       </c>
@@ -4413,13 +4413,13 @@
       <c r="D63" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="19" t="s">
+      <c r="F63" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G63" s="19" t="s">
+      <c r="G63" s="24" t="s">
         <v>112</v>
       </c>
       <c r="H63" s="15" t="s">
@@ -4455,13 +4455,13 @@
       <c r="AI63" s="6"/>
       <c r="AJ63" s="6"/>
     </row>
-    <row r="64" spans="2:36" ht="18.75" thickBot="1">
+    <row r="64" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="20"/>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
       <c r="H64" s="15" t="s">
         <v>214</v>
       </c>
@@ -4495,7 +4495,7 @@
       <c r="AI64" s="6"/>
       <c r="AJ64" s="6"/>
     </row>
-    <row r="65" spans="2:36" ht="36.75" thickBot="1">
+    <row r="65" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>215</v>
       </c>
@@ -4547,7 +4547,7 @@
       <c r="AI65" s="6"/>
       <c r="AJ65" s="6"/>
     </row>
-    <row r="66" spans="2:36" ht="18.75" thickBot="1">
+    <row r="66" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="20" t="s">
         <v>219</v>
       </c>
@@ -4557,13 +4557,13 @@
       <c r="D66" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F66" s="19" t="s">
+      <c r="F66" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G66" s="19" t="s">
+      <c r="G66" s="24" t="s">
         <v>112</v>
       </c>
       <c r="H66" s="15" t="s">
@@ -4599,13 +4599,13 @@
       <c r="AI66" s="6"/>
       <c r="AJ66" s="6"/>
     </row>
-    <row r="67" spans="2:36" ht="18.75" thickBot="1">
+    <row r="67" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="20"/>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
       <c r="H67" s="15" t="s">
         <v>223</v>
       </c>
@@ -4639,7 +4639,7 @@
       <c r="AI67" s="6"/>
       <c r="AJ67" s="6"/>
     </row>
-    <row r="68" spans="2:36" ht="18.75" thickBot="1">
+    <row r="68" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="20" t="s">
         <v>224</v>
       </c>
@@ -4649,13 +4649,13 @@
       <c r="D68" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F68" s="19" t="s">
+      <c r="F68" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="19" t="s">
+      <c r="G68" s="24" t="s">
         <v>219</v>
       </c>
       <c r="H68" s="18" t="s">
@@ -4691,13 +4691,13 @@
       <c r="AI68" s="6"/>
       <c r="AJ68" s="6"/>
     </row>
-    <row r="69" spans="2:36" ht="18.75" thickBot="1">
+    <row r="69" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="20"/>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
       <c r="H69" s="18" t="s">
         <v>228</v>
       </c>
@@ -4731,7 +4731,7 @@
       <c r="AI69" s="6"/>
       <c r="AJ69" s="6"/>
     </row>
-    <row r="70" spans="2:36" ht="18.75" thickBot="1">
+    <row r="70" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="20" t="s">
         <v>229</v>
       </c>
@@ -4741,13 +4741,13 @@
       <c r="D70" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="19" t="s">
+      <c r="F70" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G70" s="19" t="s">
+      <c r="G70" s="24" t="s">
         <v>215</v>
       </c>
       <c r="H70" s="15" t="s">
@@ -4783,13 +4783,13 @@
       <c r="AI70" s="6"/>
       <c r="AJ70" s="6"/>
     </row>
-    <row r="71" spans="2:36" ht="18.75" thickBot="1">
+    <row r="71" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="20"/>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
       <c r="H71" s="15" t="s">
         <v>233</v>
       </c>
@@ -4823,7 +4823,7 @@
       <c r="AI71" s="6"/>
       <c r="AJ71" s="6"/>
     </row>
-    <row r="72" spans="2:36" ht="18.75" thickBot="1">
+    <row r="72" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="20" t="s">
         <v>234</v>
       </c>
@@ -4833,13 +4833,13 @@
       <c r="D72" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="19" t="s">
+      <c r="F72" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G72" s="19" t="s">
+      <c r="G72" s="24" t="s">
         <v>112</v>
       </c>
       <c r="H72" s="15" t="s">
@@ -4875,13 +4875,13 @@
       <c r="AI72" s="6"/>
       <c r="AJ72" s="6"/>
     </row>
-    <row r="73" spans="2:36" ht="36.75" thickBot="1">
+    <row r="73" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="20"/>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
       <c r="H73" s="15" t="s">
         <v>238</v>
       </c>
@@ -4915,7 +4915,7 @@
       <c r="AI73" s="6"/>
       <c r="AJ73" s="6"/>
     </row>
-    <row r="74" spans="2:36" ht="36.75" thickBot="1">
+    <row r="74" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="20" t="s">
         <v>86</v>
       </c>
@@ -4925,13 +4925,13 @@
       <c r="D74" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F74" s="19" t="s">
+      <c r="F74" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G74" s="19" t="s">
+      <c r="G74" s="24" t="s">
         <v>88</v>
       </c>
       <c r="H74" s="15" t="s">
@@ -4967,13 +4967,13 @@
       <c r="AI74" s="6"/>
       <c r="AJ74" s="6"/>
     </row>
-    <row r="75" spans="2:36" ht="18.75" thickBot="1">
-      <c r="B75" s="21"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
+    <row r="75" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="34"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
       <c r="H75" s="17" t="s">
         <v>241</v>
       </c>
@@ -5007,7 +5007,7 @@
       <c r="AI75" s="6"/>
       <c r="AJ75" s="6"/>
     </row>
-    <row r="76" spans="2:36">
+    <row r="76" spans="2:36" x14ac:dyDescent="0.25">
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
@@ -5035,7 +5035,7 @@
       <c r="AI76" s="6"/>
       <c r="AJ76" s="6"/>
     </row>
-    <row r="77" spans="2:36">
+    <row r="77" spans="2:36" x14ac:dyDescent="0.25">
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
@@ -5063,7 +5063,7 @@
       <c r="AI77" s="6"/>
       <c r="AJ77" s="6"/>
     </row>
-    <row r="78" spans="2:36">
+    <row r="78" spans="2:36" x14ac:dyDescent="0.25">
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
@@ -5091,7 +5091,7 @@
       <c r="AI78" s="6"/>
       <c r="AJ78" s="6"/>
     </row>
-    <row r="79" spans="2:36">
+    <row r="79" spans="2:36" x14ac:dyDescent="0.25">
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
@@ -5119,7 +5119,7 @@
       <c r="AI79" s="6"/>
       <c r="AJ79" s="6"/>
     </row>
-    <row r="80" spans="2:36">
+    <row r="80" spans="2:36" x14ac:dyDescent="0.25">
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
@@ -5147,7 +5147,7 @@
       <c r="AI80" s="6"/>
       <c r="AJ80" s="6"/>
     </row>
-    <row r="81" spans="11:36">
+    <row r="81" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
@@ -5175,7 +5175,7 @@
       <c r="AI81" s="6"/>
       <c r="AJ81" s="6"/>
     </row>
-    <row r="82" spans="11:36">
+    <row r="82" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
@@ -5203,7 +5203,7 @@
       <c r="AI82" s="6"/>
       <c r="AJ82" s="6"/>
     </row>
-    <row r="83" spans="11:36">
+    <row r="83" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
@@ -5231,7 +5231,7 @@
       <c r="AI83" s="6"/>
       <c r="AJ83" s="6"/>
     </row>
-    <row r="84" spans="11:36">
+    <row r="84" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
@@ -5259,7 +5259,7 @@
       <c r="AI84" s="6"/>
       <c r="AJ84" s="6"/>
     </row>
-    <row r="85" spans="11:36">
+    <row r="85" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
@@ -5287,7 +5287,7 @@
       <c r="AI85" s="6"/>
       <c r="AJ85" s="6"/>
     </row>
-    <row r="86" spans="11:36">
+    <row r="86" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
@@ -5315,7 +5315,7 @@
       <c r="AI86" s="6"/>
       <c r="AJ86" s="6"/>
     </row>
-    <row r="87" spans="11:36">
+    <row r="87" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
@@ -5343,7 +5343,7 @@
       <c r="AI87" s="6"/>
       <c r="AJ87" s="6"/>
     </row>
-    <row r="88" spans="11:36">
+    <row r="88" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
@@ -5371,7 +5371,7 @@
       <c r="AI88" s="6"/>
       <c r="AJ88" s="6"/>
     </row>
-    <row r="89" spans="11:36">
+    <row r="89" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
@@ -5399,7 +5399,7 @@
       <c r="AI89" s="6"/>
       <c r="AJ89" s="6"/>
     </row>
-    <row r="90" spans="11:36">
+    <row r="90" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
@@ -5427,7 +5427,7 @@
       <c r="AI90" s="6"/>
       <c r="AJ90" s="6"/>
     </row>
-    <row r="91" spans="11:36">
+    <row r="91" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
@@ -5455,7 +5455,7 @@
       <c r="AI91" s="6"/>
       <c r="AJ91" s="6"/>
     </row>
-    <row r="92" spans="11:36">
+    <row r="92" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
@@ -5483,7 +5483,7 @@
       <c r="AI92" s="6"/>
       <c r="AJ92" s="6"/>
     </row>
-    <row r="93" spans="11:36">
+    <row r="93" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
@@ -5511,7 +5511,7 @@
       <c r="AI93" s="6"/>
       <c r="AJ93" s="6"/>
     </row>
-    <row r="94" spans="11:36">
+    <row r="94" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
@@ -5539,7 +5539,7 @@
       <c r="AI94" s="6"/>
       <c r="AJ94" s="6"/>
     </row>
-    <row r="95" spans="11:36">
+    <row r="95" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
@@ -5567,7 +5567,7 @@
       <c r="AI95" s="6"/>
       <c r="AJ95" s="6"/>
     </row>
-    <row r="96" spans="11:36">
+    <row r="96" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
@@ -5595,7 +5595,7 @@
       <c r="AI96" s="6"/>
       <c r="AJ96" s="6"/>
     </row>
-    <row r="97" spans="11:36">
+    <row r="97" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
@@ -5623,7 +5623,7 @@
       <c r="AI97" s="6"/>
       <c r="AJ97" s="6"/>
     </row>
-    <row r="98" spans="11:36">
+    <row r="98" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
@@ -5651,7 +5651,7 @@
       <c r="AI98" s="6"/>
       <c r="AJ98" s="6"/>
     </row>
-    <row r="99" spans="11:36">
+    <row r="99" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
@@ -5679,7 +5679,7 @@
       <c r="AI99" s="6"/>
       <c r="AJ99" s="6"/>
     </row>
-    <row r="100" spans="11:36">
+    <row r="100" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
@@ -5707,7 +5707,7 @@
       <c r="AI100" s="6"/>
       <c r="AJ100" s="6"/>
     </row>
-    <row r="101" spans="11:36">
+    <row r="101" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
@@ -5735,7 +5735,7 @@
       <c r="AI101" s="6"/>
       <c r="AJ101" s="6"/>
     </row>
-    <row r="102" spans="11:36">
+    <row r="102" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
@@ -5763,7 +5763,7 @@
       <c r="AI102" s="6"/>
       <c r="AJ102" s="6"/>
     </row>
-    <row r="103" spans="11:36">
+    <row r="103" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
@@ -5791,7 +5791,7 @@
       <c r="AI103" s="6"/>
       <c r="AJ103" s="6"/>
     </row>
-    <row r="104" spans="11:36">
+    <row r="104" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
@@ -5819,7 +5819,7 @@
       <c r="AI104" s="6"/>
       <c r="AJ104" s="6"/>
     </row>
-    <row r="105" spans="11:36">
+    <row r="105" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
@@ -5847,7 +5847,7 @@
       <c r="AI105" s="6"/>
       <c r="AJ105" s="6"/>
     </row>
-    <row r="106" spans="11:36">
+    <row r="106" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
@@ -5875,7 +5875,7 @@
       <c r="AI106" s="6"/>
       <c r="AJ106" s="6"/>
     </row>
-    <row r="107" spans="11:36">
+    <row r="107" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
@@ -5903,7 +5903,7 @@
       <c r="AI107" s="6"/>
       <c r="AJ107" s="6"/>
     </row>
-    <row r="108" spans="11:36">
+    <row r="108" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
@@ -5931,7 +5931,7 @@
       <c r="AI108" s="6"/>
       <c r="AJ108" s="6"/>
     </row>
-    <row r="109" spans="11:36">
+    <row r="109" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
@@ -5959,7 +5959,7 @@
       <c r="AI109" s="6"/>
       <c r="AJ109" s="6"/>
     </row>
-    <row r="110" spans="11:36">
+    <row r="110" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
@@ -5987,7 +5987,7 @@
       <c r="AI110" s="6"/>
       <c r="AJ110" s="6"/>
     </row>
-    <row r="111" spans="11:36">
+    <row r="111" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
@@ -6015,7 +6015,7 @@
       <c r="AI111" s="6"/>
       <c r="AJ111" s="6"/>
     </row>
-    <row r="112" spans="11:36">
+    <row r="112" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
@@ -6043,7 +6043,7 @@
       <c r="AI112" s="6"/>
       <c r="AJ112" s="6"/>
     </row>
-    <row r="113" spans="11:36">
+    <row r="113" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
       <c r="M113" s="6"/>
@@ -6071,7 +6071,7 @@
       <c r="AI113" s="6"/>
       <c r="AJ113" s="6"/>
     </row>
-    <row r="114" spans="11:36">
+    <row r="114" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
       <c r="M114" s="6"/>
@@ -6099,7 +6099,7 @@
       <c r="AI114" s="6"/>
       <c r="AJ114" s="6"/>
     </row>
-    <row r="115" spans="11:36">
+    <row r="115" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
       <c r="M115" s="6"/>
@@ -6127,7 +6127,7 @@
       <c r="AI115" s="6"/>
       <c r="AJ115" s="6"/>
     </row>
-    <row r="116" spans="11:36">
+    <row r="116" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
@@ -6155,7 +6155,7 @@
       <c r="AI116" s="6"/>
       <c r="AJ116" s="6"/>
     </row>
-    <row r="117" spans="11:36">
+    <row r="117" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
       <c r="M117" s="6"/>
@@ -6183,7 +6183,7 @@
       <c r="AI117" s="6"/>
       <c r="AJ117" s="6"/>
     </row>
-    <row r="118" spans="11:36">
+    <row r="118" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
@@ -6211,7 +6211,7 @@
       <c r="AI118" s="6"/>
       <c r="AJ118" s="6"/>
     </row>
-    <row r="119" spans="11:36">
+    <row r="119" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
@@ -6239,7 +6239,7 @@
       <c r="AI119" s="6"/>
       <c r="AJ119" s="6"/>
     </row>
-    <row r="120" spans="11:36">
+    <row r="120" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
@@ -6267,7 +6267,7 @@
       <c r="AI120" s="6"/>
       <c r="AJ120" s="6"/>
     </row>
-    <row r="121" spans="11:36">
+    <row r="121" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
       <c r="M121" s="6"/>
@@ -6295,7 +6295,7 @@
       <c r="AI121" s="6"/>
       <c r="AJ121" s="6"/>
     </row>
-    <row r="122" spans="11:36">
+    <row r="122" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
@@ -6323,7 +6323,7 @@
       <c r="AI122" s="6"/>
       <c r="AJ122" s="6"/>
     </row>
-    <row r="123" spans="11:36">
+    <row r="123" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
@@ -6351,7 +6351,7 @@
       <c r="AI123" s="6"/>
       <c r="AJ123" s="6"/>
     </row>
-    <row r="124" spans="11:36">
+    <row r="124" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
@@ -6379,7 +6379,7 @@
       <c r="AI124" s="6"/>
       <c r="AJ124" s="6"/>
     </row>
-    <row r="125" spans="11:36">
+    <row r="125" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
@@ -6407,7 +6407,7 @@
       <c r="AI125" s="6"/>
       <c r="AJ125" s="6"/>
     </row>
-    <row r="126" spans="11:36">
+    <row r="126" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
@@ -6435,7 +6435,7 @@
       <c r="AI126" s="6"/>
       <c r="AJ126" s="6"/>
     </row>
-    <row r="127" spans="11:36">
+    <row r="127" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
       <c r="M127" s="6"/>
@@ -6463,7 +6463,7 @@
       <c r="AI127" s="6"/>
       <c r="AJ127" s="6"/>
     </row>
-    <row r="128" spans="11:36">
+    <row r="128" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
       <c r="M128" s="6"/>
@@ -6491,7 +6491,7 @@
       <c r="AI128" s="6"/>
       <c r="AJ128" s="6"/>
     </row>
-    <row r="129" spans="11:36">
+    <row r="129" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
@@ -6519,7 +6519,7 @@
       <c r="AI129" s="6"/>
       <c r="AJ129" s="6"/>
     </row>
-    <row r="130" spans="11:36">
+    <row r="130" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
@@ -6547,7 +6547,7 @@
       <c r="AI130" s="6"/>
       <c r="AJ130" s="6"/>
     </row>
-    <row r="131" spans="11:36">
+    <row r="131" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
       <c r="M131" s="6"/>
@@ -6575,7 +6575,7 @@
       <c r="AI131" s="6"/>
       <c r="AJ131" s="6"/>
     </row>
-    <row r="132" spans="11:36">
+    <row r="132" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
       <c r="M132" s="6"/>
@@ -6603,7 +6603,7 @@
       <c r="AI132" s="6"/>
       <c r="AJ132" s="6"/>
     </row>
-    <row r="133" spans="11:36">
+    <row r="133" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
       <c r="M133" s="6"/>
@@ -6631,7 +6631,7 @@
       <c r="AI133" s="6"/>
       <c r="AJ133" s="6"/>
     </row>
-    <row r="134" spans="11:36">
+    <row r="134" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
       <c r="M134" s="6"/>
@@ -6659,7 +6659,7 @@
       <c r="AI134" s="6"/>
       <c r="AJ134" s="6"/>
     </row>
-    <row r="135" spans="11:36">
+    <row r="135" spans="11:36" x14ac:dyDescent="0.25">
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
       <c r="M135" s="6"/>
@@ -6689,6 +6689,168 @@
     </row>
   </sheetData>
   <mergeCells count="181">
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -6708,168 +6870,6 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:I75">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -6889,7 +6889,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="2" customWidth="1"/>
@@ -6898,17 +6898,17 @@
     <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36">
+    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="21">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="45">
+    <row r="5" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="90">
+    <row r="6" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="45">
+    <row r="7" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="225">
+    <row r="8" spans="2:3" ht="225" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="50.25" customHeight="1">
+    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="60">
+    <row r="10" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="60">
+    <row r="11" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="30">
+    <row r="12" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Historias Técnicas versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Historias Técnicas versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A273C4-CD4F-45B8-95E4-781E80E94A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA06DB1F-E256-4242-A415-128BFCEB13F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,22 +1153,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1197,15 +1206,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1545,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DBEB7-C3D2-4473-9B85-4CF26F3AA489}">
   <dimension ref="B1:AJ135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:E45"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,16 +1566,16 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -1604,14 +1604,14 @@
       <c r="AJ2" s="6"/>
     </row>
     <row r="3" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -1640,14 +1640,14 @@
       <c r="AJ3" s="6"/>
     </row>
     <row r="4" spans="2:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -1728,22 +1728,22 @@
       <c r="AJ5" s="6"/>
     </row>
     <row r="6" spans="2:36" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="27" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -1783,9 +1783,9 @@
       <c r="B7" s="20"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="15" t="s">
         <v>121</v>
       </c>
@@ -1829,13 +1829,13 @@
       <c r="D8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="15" t="s">
@@ -1875,9 +1875,9 @@
       <c r="B9" s="20"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="15" t="s">
         <v>123</v>
       </c>
@@ -1921,13 +1921,13 @@
       <c r="D10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="19" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="15" t="s">
@@ -1967,9 +1967,9 @@
       <c r="B11" s="20"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="15" t="s">
         <v>125</v>
       </c>
@@ -2013,13 +2013,13 @@
       <c r="D12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="19" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="15" t="s">
@@ -2059,9 +2059,9 @@
       <c r="B13" s="20"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="15" t="s">
         <v>127</v>
       </c>
@@ -2157,13 +2157,13 @@
       <c r="D15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="19" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="15" t="s">
@@ -2203,9 +2203,9 @@
       <c r="B16" s="20"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="15" t="s">
         <v>129</v>
       </c>
@@ -2249,13 +2249,13 @@
       <c r="D17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="19" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="15" t="s">
@@ -2295,9 +2295,9 @@
       <c r="B18" s="20"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="15" t="s">
         <v>131</v>
       </c>
@@ -2393,13 +2393,13 @@
       <c r="D20" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="19" t="s">
         <v>28</v>
       </c>
       <c r="H20" s="15" t="s">
@@ -2439,9 +2439,9 @@
       <c r="B21" s="20"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="15" t="s">
         <v>133</v>
       </c>
@@ -2589,13 +2589,13 @@
       <c r="D24" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="19" t="s">
         <v>68</v>
       </c>
       <c r="H24" s="15" t="s">
@@ -2635,9 +2635,9 @@
       <c r="B25" s="20"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="15" t="s">
         <v>135</v>
       </c>
@@ -2733,13 +2733,13 @@
       <c r="D27" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="19" t="s">
         <v>151</v>
       </c>
       <c r="H27" s="15" t="s">
@@ -2779,9 +2779,9 @@
       <c r="B28" s="20"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="15" t="s">
         <v>153</v>
       </c>
@@ -2825,13 +2825,13 @@
       <c r="D29" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="19" t="s">
         <v>157</v>
       </c>
       <c r="H29" s="15" t="s">
@@ -2871,9 +2871,9 @@
       <c r="B30" s="20"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="15" t="s">
         <v>159</v>
       </c>
@@ -2917,13 +2917,13 @@
       <c r="D31" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="19" t="s">
         <v>163</v>
       </c>
       <c r="H31" s="15" t="s">
@@ -2963,9 +2963,9 @@
       <c r="B32" s="20"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="15" t="s">
         <v>165</v>
       </c>
@@ -3009,13 +3009,13 @@
       <c r="D33" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="19" t="s">
         <v>169</v>
       </c>
       <c r="H33" s="15" t="s">
@@ -3055,14 +3055,14 @@
       <c r="B34" s="20"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="15" t="s">
         <v>171</v>
       </c>
       <c r="I34" s="13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
@@ -3153,13 +3153,13 @@
       <c r="D36" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="19" t="s">
         <v>180</v>
       </c>
       <c r="H36" s="15" t="s">
@@ -3199,9 +3199,9 @@
       <c r="B37" s="20"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
       <c r="H37" s="15" t="s">
         <v>182</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>83</v>
       </c>
       <c r="I38" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
@@ -3349,13 +3349,13 @@
       <c r="D40" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="19" t="s">
         <v>92</v>
       </c>
       <c r="H40" s="15" t="s">
@@ -3395,9 +3395,9 @@
       <c r="B41" s="20"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
       <c r="H41" s="15" t="s">
         <v>137</v>
       </c>
@@ -3441,13 +3441,13 @@
       <c r="D42" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="19" t="s">
         <v>96</v>
       </c>
       <c r="H42" s="15" t="s">
@@ -3487,9 +3487,9 @@
       <c r="B43" s="20"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
       <c r="H43" s="15" t="s">
         <v>139</v>
       </c>
@@ -3533,13 +3533,13 @@
       <c r="D44" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="19" t="s">
         <v>101</v>
       </c>
       <c r="H44" s="15" t="s">
@@ -3579,9 +3579,9 @@
       <c r="B45" s="20"/>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
       <c r="H45" s="15" t="s">
         <v>141</v>
       </c>
@@ -3625,13 +3625,13 @@
       <c r="D46" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="19" t="s">
         <v>105</v>
       </c>
       <c r="H46" s="15" t="s">
@@ -3671,9 +3671,9 @@
       <c r="B47" s="20"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
       <c r="H47" s="15" t="s">
         <v>143</v>
       </c>
@@ -3717,13 +3717,13 @@
       <c r="D48" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="19" t="s">
         <v>108</v>
       </c>
       <c r="H48" s="15" t="s">
@@ -3763,9 +3763,9 @@
       <c r="B49" s="20"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
       <c r="H49" s="15" t="s">
         <v>145</v>
       </c>
@@ -3809,13 +3809,13 @@
       <c r="D50" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="G50" s="19" t="s">
         <v>190</v>
       </c>
       <c r="H50" s="18" t="s">
@@ -3855,9 +3855,9 @@
       <c r="B51" s="20"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
       <c r="H51" s="15" t="s">
         <v>192</v>
       </c>
@@ -3901,13 +3901,13 @@
       <c r="D52" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E52" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G52" s="19" t="s">
         <v>112</v>
       </c>
       <c r="H52" s="15" t="s">
@@ -3947,9 +3947,9 @@
       <c r="B53" s="20"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
       <c r="H53" s="15" t="s">
         <v>147</v>
       </c>
@@ -3993,13 +3993,13 @@
       <c r="D54" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F54" s="24" t="s">
+      <c r="F54" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="19" t="s">
         <v>112</v>
       </c>
       <c r="H54" s="15" t="s">
@@ -4039,9 +4039,9 @@
       <c r="B55" s="20"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
       <c r="H55" s="15" t="s">
         <v>184</v>
       </c>
@@ -4137,13 +4137,13 @@
       <c r="D57" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E57" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="F57" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G57" s="24" t="s">
+      <c r="G57" s="19" t="s">
         <v>113</v>
       </c>
       <c r="H57" s="15" t="s">
@@ -4183,9 +4183,9 @@
       <c r="B58" s="20"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
       <c r="H58" s="15" t="s">
         <v>199</v>
       </c>
@@ -4229,13 +4229,13 @@
       <c r="D59" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="24" t="s">
+      <c r="G59" s="19" t="s">
         <v>41</v>
       </c>
       <c r="H59" s="15" t="s">
@@ -4275,9 +4275,9 @@
       <c r="B60" s="20"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
       <c r="H60" s="15" t="s">
         <v>204</v>
       </c>
@@ -4321,13 +4321,13 @@
       <c r="D61" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E61" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G61" s="24" t="s">
+      <c r="G61" s="19" t="s">
         <v>180</v>
       </c>
       <c r="H61" s="15" t="s">
@@ -4367,9 +4367,9 @@
       <c r="B62" s="20"/>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
       <c r="H62" s="15" t="s">
         <v>209</v>
       </c>
@@ -4413,13 +4413,13 @@
       <c r="D63" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="E63" s="24" t="s">
+      <c r="E63" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F63" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G63" s="24" t="s">
+      <c r="G63" s="19" t="s">
         <v>112</v>
       </c>
       <c r="H63" s="15" t="s">
@@ -4459,9 +4459,9 @@
       <c r="B64" s="20"/>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
       <c r="H64" s="15" t="s">
         <v>214</v>
       </c>
@@ -4557,13 +4557,13 @@
       <c r="D66" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="E66" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="F66" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G66" s="24" t="s">
+      <c r="G66" s="19" t="s">
         <v>112</v>
       </c>
       <c r="H66" s="15" t="s">
@@ -4603,9 +4603,9 @@
       <c r="B67" s="20"/>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
       <c r="H67" s="15" t="s">
         <v>223</v>
       </c>
@@ -4649,13 +4649,13 @@
       <c r="D68" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="E68" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F68" s="24" t="s">
+      <c r="F68" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="24" t="s">
+      <c r="G68" s="19" t="s">
         <v>219</v>
       </c>
       <c r="H68" s="18" t="s">
@@ -4695,9 +4695,9 @@
       <c r="B69" s="20"/>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
       <c r="H69" s="18" t="s">
         <v>228</v>
       </c>
@@ -4741,13 +4741,13 @@
       <c r="D70" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="E70" s="24" t="s">
+      <c r="E70" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="24" t="s">
+      <c r="F70" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G70" s="24" t="s">
+      <c r="G70" s="19" t="s">
         <v>215</v>
       </c>
       <c r="H70" s="15" t="s">
@@ -4787,9 +4787,9 @@
       <c r="B71" s="20"/>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
       <c r="H71" s="15" t="s">
         <v>233</v>
       </c>
@@ -4833,13 +4833,13 @@
       <c r="D72" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="E72" s="24" t="s">
+      <c r="E72" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="24" t="s">
+      <c r="F72" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G72" s="24" t="s">
+      <c r="G72" s="19" t="s">
         <v>112</v>
       </c>
       <c r="H72" s="15" t="s">
@@ -4879,9 +4879,9 @@
       <c r="B73" s="20"/>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
       <c r="H73" s="15" t="s">
         <v>238</v>
       </c>
@@ -4925,13 +4925,13 @@
       <c r="D74" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="E74" s="24" t="s">
+      <c r="E74" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F74" s="24" t="s">
+      <c r="F74" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G74" s="24" t="s">
+      <c r="G74" s="19" t="s">
         <v>88</v>
       </c>
       <c r="H74" s="15" t="s">
@@ -4968,12 +4968,12 @@
       <c r="AJ74" s="6"/>
     </row>
     <row r="75" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="34"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
       <c r="H75" s="17" t="s">
         <v>241</v>
       </c>
@@ -6689,168 +6689,6 @@
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -6870,6 +6708,168 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:I75">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/Documentacion/Product backlog/Product Backlog v1.2/Historias Técnicas versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Historias Técnicas versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA06DB1F-E256-4242-A415-128BFCEB13F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B69CFE-497D-4514-8488-B8322A286CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1153,31 +1153,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1206,6 +1197,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1545,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DBEB7-C3D2-4473-9B85-4CF26F3AA489}">
   <dimension ref="B1:AJ135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:H39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,16 +1566,16 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -1604,14 +1604,14 @@
       <c r="AJ2" s="6"/>
     </row>
     <row r="3" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -1640,14 +1640,14 @@
       <c r="AJ3" s="6"/>
     </row>
     <row r="4" spans="2:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -1728,22 +1728,22 @@
       <c r="AJ5" s="6"/>
     </row>
     <row r="6" spans="2:36" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="23" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -1783,9 +1783,9 @@
       <c r="B7" s="20"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="15" t="s">
         <v>121</v>
       </c>
@@ -1829,13 +1829,13 @@
       <c r="D8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="24" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="15" t="s">
@@ -1875,9 +1875,9 @@
       <c r="B9" s="20"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="15" t="s">
         <v>123</v>
       </c>
@@ -1921,13 +1921,13 @@
       <c r="D10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="24" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="15" t="s">
@@ -1967,9 +1967,9 @@
       <c r="B11" s="20"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="15" t="s">
         <v>125</v>
       </c>
@@ -2013,13 +2013,13 @@
       <c r="D12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="24" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="15" t="s">
@@ -2059,9 +2059,9 @@
       <c r="B13" s="20"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="15" t="s">
         <v>127</v>
       </c>
@@ -2157,13 +2157,13 @@
       <c r="D15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="15" t="s">
@@ -2203,9 +2203,9 @@
       <c r="B16" s="20"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="15" t="s">
         <v>129</v>
       </c>
@@ -2249,13 +2249,13 @@
       <c r="D17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="24" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="15" t="s">
@@ -2295,9 +2295,9 @@
       <c r="B18" s="20"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="15" t="s">
         <v>131</v>
       </c>
@@ -2393,13 +2393,13 @@
       <c r="D20" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="24" t="s">
         <v>28</v>
       </c>
       <c r="H20" s="15" t="s">
@@ -2439,9 +2439,9 @@
       <c r="B21" s="20"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="15" t="s">
         <v>133</v>
       </c>
@@ -2589,13 +2589,13 @@
       <c r="D24" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="24" t="s">
         <v>68</v>
       </c>
       <c r="H24" s="15" t="s">
@@ -2635,9 +2635,9 @@
       <c r="B25" s="20"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="15" t="s">
         <v>135</v>
       </c>
@@ -2733,13 +2733,13 @@
       <c r="D27" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="24" t="s">
         <v>151</v>
       </c>
       <c r="H27" s="15" t="s">
@@ -2779,9 +2779,9 @@
       <c r="B28" s="20"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="15" t="s">
         <v>153</v>
       </c>
@@ -2825,13 +2825,13 @@
       <c r="D29" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="24" t="s">
         <v>157</v>
       </c>
       <c r="H29" s="15" t="s">
@@ -2871,9 +2871,9 @@
       <c r="B30" s="20"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
       <c r="H30" s="15" t="s">
         <v>159</v>
       </c>
@@ -2917,13 +2917,13 @@
       <c r="D31" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="24" t="s">
         <v>163</v>
       </c>
       <c r="H31" s="15" t="s">
@@ -2963,9 +2963,9 @@
       <c r="B32" s="20"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
       <c r="H32" s="15" t="s">
         <v>165</v>
       </c>
@@ -3009,13 +3009,13 @@
       <c r="D33" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="24" t="s">
         <v>169</v>
       </c>
       <c r="H33" s="15" t="s">
@@ -3055,14 +3055,14 @@
       <c r="B34" s="20"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
       <c r="H34" s="15" t="s">
         <v>171</v>
       </c>
       <c r="I34" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
@@ -3153,13 +3153,13 @@
       <c r="D36" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="24" t="s">
         <v>180</v>
       </c>
       <c r="H36" s="15" t="s">
@@ -3199,9 +3199,9 @@
       <c r="B37" s="20"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="15" t="s">
         <v>182</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>84</v>
       </c>
       <c r="I39" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
@@ -3349,20 +3349,20 @@
       <c r="D40" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="24" t="s">
         <v>92</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>136</v>
       </c>
       <c r="I40" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
@@ -3395,14 +3395,14 @@
       <c r="B41" s="20"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="15" t="s">
         <v>137</v>
       </c>
       <c r="I41" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
@@ -3441,20 +3441,20 @@
       <c r="D42" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="24" t="s">
         <v>96</v>
       </c>
       <c r="H42" s="15" t="s">
         <v>138</v>
       </c>
       <c r="I42" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
@@ -3487,14 +3487,14 @@
       <c r="B43" s="20"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
       <c r="H43" s="15" t="s">
         <v>139</v>
       </c>
       <c r="I43" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
@@ -3533,20 +3533,20 @@
       <c r="D44" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G44" s="24" t="s">
         <v>101</v>
       </c>
       <c r="H44" s="15" t="s">
         <v>140</v>
       </c>
       <c r="I44" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
@@ -3579,14 +3579,14 @@
       <c r="B45" s="20"/>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
       <c r="H45" s="15" t="s">
         <v>141</v>
       </c>
       <c r="I45" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
@@ -3625,20 +3625,20 @@
       <c r="D46" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="19" t="s">
+      <c r="G46" s="24" t="s">
         <v>105</v>
       </c>
       <c r="H46" s="15" t="s">
         <v>142</v>
       </c>
       <c r="I46" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
@@ -3671,14 +3671,14 @@
       <c r="B47" s="20"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
       <c r="H47" s="15" t="s">
         <v>143</v>
       </c>
       <c r="I47" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
@@ -3717,13 +3717,13 @@
       <c r="D48" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="G48" s="24" t="s">
         <v>108</v>
       </c>
       <c r="H48" s="15" t="s">
@@ -3763,9 +3763,9 @@
       <c r="B49" s="20"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
       <c r="H49" s="15" t="s">
         <v>145</v>
       </c>
@@ -3809,13 +3809,13 @@
       <c r="D50" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="G50" s="24" t="s">
         <v>190</v>
       </c>
       <c r="H50" s="18" t="s">
@@ -3855,9 +3855,9 @@
       <c r="B51" s="20"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
       <c r="H51" s="15" t="s">
         <v>192</v>
       </c>
@@ -3901,13 +3901,13 @@
       <c r="D52" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="24" t="s">
         <v>112</v>
       </c>
       <c r="H52" s="15" t="s">
@@ -3947,9 +3947,9 @@
       <c r="B53" s="20"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
       <c r="H53" s="15" t="s">
         <v>147</v>
       </c>
@@ -3993,13 +3993,13 @@
       <c r="D54" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="G54" s="24" t="s">
         <v>112</v>
       </c>
       <c r="H54" s="15" t="s">
@@ -4039,9 +4039,9 @@
       <c r="B55" s="20"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
       <c r="H55" s="15" t="s">
         <v>184</v>
       </c>
@@ -4137,13 +4137,13 @@
       <c r="D57" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G57" s="19" t="s">
+      <c r="G57" s="24" t="s">
         <v>113</v>
       </c>
       <c r="H57" s="15" t="s">
@@ -4183,9 +4183,9 @@
       <c r="B58" s="20"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
       <c r="H58" s="15" t="s">
         <v>199</v>
       </c>
@@ -4229,13 +4229,13 @@
       <c r="D59" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="19" t="s">
+      <c r="F59" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="19" t="s">
+      <c r="G59" s="24" t="s">
         <v>41</v>
       </c>
       <c r="H59" s="15" t="s">
@@ -4275,9 +4275,9 @@
       <c r="B60" s="20"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
       <c r="H60" s="15" t="s">
         <v>204</v>
       </c>
@@ -4321,13 +4321,13 @@
       <c r="D61" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="F61" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="G61" s="24" t="s">
         <v>180</v>
       </c>
       <c r="H61" s="15" t="s">
@@ -4367,9 +4367,9 @@
       <c r="B62" s="20"/>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
       <c r="H62" s="15" t="s">
         <v>209</v>
       </c>
@@ -4413,13 +4413,13 @@
       <c r="D63" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="19" t="s">
+      <c r="F63" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G63" s="19" t="s">
+      <c r="G63" s="24" t="s">
         <v>112</v>
       </c>
       <c r="H63" s="15" t="s">
@@ -4459,9 +4459,9 @@
       <c r="B64" s="20"/>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
       <c r="H64" s="15" t="s">
         <v>214</v>
       </c>
@@ -4557,13 +4557,13 @@
       <c r="D66" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F66" s="19" t="s">
+      <c r="F66" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G66" s="19" t="s">
+      <c r="G66" s="24" t="s">
         <v>112</v>
       </c>
       <c r="H66" s="15" t="s">
@@ -4603,9 +4603,9 @@
       <c r="B67" s="20"/>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
       <c r="H67" s="15" t="s">
         <v>223</v>
       </c>
@@ -4649,13 +4649,13 @@
       <c r="D68" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F68" s="19" t="s">
+      <c r="F68" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="19" t="s">
+      <c r="G68" s="24" t="s">
         <v>219</v>
       </c>
       <c r="H68" s="18" t="s">
@@ -4695,9 +4695,9 @@
       <c r="B69" s="20"/>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
       <c r="H69" s="18" t="s">
         <v>228</v>
       </c>
@@ -4731,7 +4731,7 @@
       <c r="AI69" s="6"/>
       <c r="AJ69" s="6"/>
     </row>
-    <row r="70" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="20" t="s">
         <v>229</v>
       </c>
@@ -4741,13 +4741,13 @@
       <c r="D70" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="19" t="s">
+      <c r="F70" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G70" s="19" t="s">
+      <c r="G70" s="24" t="s">
         <v>215</v>
       </c>
       <c r="H70" s="15" t="s">
@@ -4787,9 +4787,9 @@
       <c r="B71" s="20"/>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
       <c r="H71" s="15" t="s">
         <v>233</v>
       </c>
@@ -4833,13 +4833,13 @@
       <c r="D72" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="19" t="s">
+      <c r="F72" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G72" s="19" t="s">
+      <c r="G72" s="24" t="s">
         <v>112</v>
       </c>
       <c r="H72" s="15" t="s">
@@ -4879,9 +4879,9 @@
       <c r="B73" s="20"/>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
       <c r="H73" s="15" t="s">
         <v>238</v>
       </c>
@@ -4925,13 +4925,13 @@
       <c r="D74" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F74" s="19" t="s">
+      <c r="F74" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G74" s="19" t="s">
+      <c r="G74" s="24" t="s">
         <v>88</v>
       </c>
       <c r="H74" s="15" t="s">
@@ -4968,12 +4968,12 @@
       <c r="AJ74" s="6"/>
     </row>
     <row r="75" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="21"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
       <c r="H75" s="17" t="s">
         <v>241</v>
       </c>
@@ -6689,6 +6689,168 @@
     </row>
   </sheetData>
   <mergeCells count="181">
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -6708,168 +6870,6 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:I75">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/Documentacion/Product backlog/Product Backlog v1.2/Historias Técnicas versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Historias Técnicas versión 1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B69CFE-497D-4514-8488-B8322A286CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D994B9-DA97-42C4-BE97-FF08E86DDDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="227">
   <si>
     <t>Columna</t>
   </si>
@@ -375,15 +376,6 @@
     <t>HT-033, HT-034</t>
   </si>
   <si>
-    <t>HT-041</t>
-  </si>
-  <si>
-    <t>Implementar pruebas de carga</t>
-  </si>
-  <si>
-    <t>Ejecutar pruebas de carga en las principales funcionalidades del sistema (registro, carrito, pedidos).</t>
-  </si>
-  <si>
     <t>Todas las anteriores</t>
   </si>
   <si>
@@ -393,18 +385,6 @@
     <t>Probar la integración entre capas</t>
   </si>
   <si>
-    <t>HT-043</t>
-  </si>
-  <si>
-    <t>Crear documentación detallada de las pruebas realizadas en el sistema.</t>
-  </si>
-  <si>
-    <t>HT-041, HT-042</t>
-  </si>
-  <si>
-    <t>- La documentación debe incluir resultados, problemas encontrados y soluciones aplicadas.</t>
-  </si>
-  <si>
     <t>Crear el esquema inicial para las tablas de usuarios, productos, categorías, pedidos y carrito.</t>
   </si>
   <si>
@@ -486,12 +466,6 @@
     <t>- Confirmar la entrega en tiempo adecuado.</t>
   </si>
   <si>
-    <t>- Validar que el sistema soporte múltiples usuarios concurrentes.</t>
-  </si>
-  <si>
-    <t>- Medir tiempos de respuesta aceptables bajo carga.</t>
-  </si>
-  <si>
     <t>HT-015</t>
   </si>
   <si>
@@ -628,24 +602,6 @@
   </si>
   <si>
     <t>Validar la interacción entre las diferentes capas del sistema (base de datos, lógica y presentación).</t>
-  </si>
-  <si>
-    <t>Documentar los casos de prueba realizados</t>
-  </si>
-  <si>
-    <t>HT-044</t>
-  </si>
-  <si>
-    <t>Optimizar consultas y endpoints detectados</t>
-  </si>
-  <si>
-    <t>Mejorar el rendimiento de las consultas y endpoints identificados durante las pruebas.</t>
-  </si>
-  <si>
-    <t>- Reducir tiempos de respuesta de las consultas detectadas como lentas.</t>
-  </si>
-  <si>
-    <t>- Validar que los cambios no introducen nuevos errores.</t>
   </si>
   <si>
     <t>HT-045</t>
@@ -778,7 +734,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1153,22 +1109,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1197,15 +1162,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1543,13 +1499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DBEB7-C3D2-4473-9B85-4CF26F3AA489}">
-  <dimension ref="B1:AJ135"/>
+  <dimension ref="B1:AJ130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48:C49"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="7" customWidth="1"/>
@@ -1564,18 +1520,18 @@
     <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:36" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+    <row r="1" spans="2:36" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:36" ht="36" customHeight="1">
+      <c r="B2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -1603,15 +1559,15 @@
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
     </row>
-    <row r="3" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
+    <row r="3" spans="2:36" ht="21" customHeight="1">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -1639,15 +1595,15 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
     </row>
-    <row r="4" spans="2:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
+    <row r="4" spans="2:36" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -1675,7 +1631,7 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
     </row>
-    <row r="5" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:36" ht="18.75" thickBot="1">
       <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
@@ -1727,27 +1683,27 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
     </row>
-    <row r="6" spans="2:36" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="2:36" ht="51.75" customHeight="1" thickBot="1">
+      <c r="B6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="D6" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="27" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I6" s="13" t="b">
         <v>1</v>
@@ -1779,15 +1735,15 @@
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
     </row>
-    <row r="7" spans="2:36" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:36" ht="45" customHeight="1" thickBot="1">
       <c r="B7" s="20"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I7" s="13" t="b">
         <v>1</v>
@@ -1819,7 +1775,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
     </row>
-    <row r="8" spans="2:36" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:36" ht="48" customHeight="1" thickBot="1">
       <c r="B8" s="20" t="s">
         <v>28</v>
       </c>
@@ -1829,17 +1785,17 @@
       <c r="D8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I8" s="13" t="b">
         <v>1</v>
@@ -1871,15 +1827,15 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
     </row>
-    <row r="9" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:36" ht="18.75" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="15" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I9" s="13" t="b">
         <v>1</v>
@@ -1911,7 +1867,7 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
     </row>
-    <row r="10" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:36" ht="36.75" thickBot="1">
       <c r="B10" s="20" t="s">
         <v>29</v>
       </c>
@@ -1921,17 +1877,17 @@
       <c r="D10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="19" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I10" s="13" t="b">
         <v>1</v>
@@ -1963,15 +1919,15 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
     </row>
-    <row r="11" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:36" ht="18.75" thickBot="1">
       <c r="B11" s="20"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="15" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I11" s="13" t="b">
         <v>1</v>
@@ -2003,7 +1959,7 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
     </row>
-    <row r="12" spans="2:36" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:36" ht="48" customHeight="1" thickBot="1">
       <c r="B12" s="20" t="s">
         <v>30</v>
       </c>
@@ -2013,17 +1969,17 @@
       <c r="D12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="19" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I12" s="13" t="b">
         <v>1</v>
@@ -2055,15 +2011,15 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
     </row>
-    <row r="13" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:36" ht="18.75" thickBot="1">
       <c r="B13" s="20"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="15" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I13" s="13" t="b">
         <v>1</v>
@@ -2095,7 +2051,7 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
     </row>
-    <row r="14" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:36" ht="36.75" thickBot="1">
       <c r="B14" s="14" t="s">
         <v>31</v>
       </c>
@@ -2147,7 +2103,7 @@
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
     </row>
-    <row r="15" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:36" ht="36.75" thickBot="1">
       <c r="B15" s="20" t="s">
         <v>32</v>
       </c>
@@ -2157,17 +2113,17 @@
       <c r="D15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="19" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I15" s="13" t="b">
         <v>1</v>
@@ -2199,15 +2155,15 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
     </row>
-    <row r="16" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:36" ht="18.75" thickBot="1">
       <c r="B16" s="20"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I16" s="13" t="b">
         <v>1</v>
@@ -2239,7 +2195,7 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
     </row>
-    <row r="17" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:36" ht="36.75" thickBot="1">
       <c r="B17" s="20" t="s">
         <v>33</v>
       </c>
@@ -2249,17 +2205,17 @@
       <c r="D17" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="19" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I17" s="13" t="b">
         <v>1</v>
@@ -2291,15 +2247,15 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
     </row>
-    <row r="18" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:36" ht="18.75" thickBot="1">
       <c r="B18" s="20"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="15" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I18" s="13" t="b">
         <v>1</v>
@@ -2331,7 +2287,7 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
     </row>
-    <row r="19" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:36" ht="36.75" thickBot="1">
       <c r="B19" s="14" t="s">
         <v>34</v>
       </c>
@@ -2383,7 +2339,7 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
     </row>
-    <row r="20" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:36" ht="36.75" thickBot="1">
       <c r="B20" s="20" t="s">
         <v>35</v>
       </c>
@@ -2393,17 +2349,17 @@
       <c r="D20" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="19" t="s">
         <v>28</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I20" s="13" t="b">
         <v>1</v>
@@ -2435,15 +2391,15 @@
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
     </row>
-    <row r="21" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:36" ht="18.75" thickBot="1">
       <c r="B21" s="20"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I21" s="13" t="b">
         <v>1</v>
@@ -2475,7 +2431,7 @@
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
     </row>
-    <row r="22" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:36" ht="36.75" thickBot="1">
       <c r="B22" s="14" t="s">
         <v>36</v>
       </c>
@@ -2527,7 +2483,7 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
     </row>
-    <row r="23" spans="2:36" ht="66" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:36" ht="54.75" thickBot="1">
       <c r="B23" s="14" t="s">
         <v>37</v>
       </c>
@@ -2579,7 +2535,7 @@
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
     </row>
-    <row r="24" spans="2:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:36" ht="30" customHeight="1" thickBot="1">
       <c r="B24" s="20" t="s">
         <v>38</v>
       </c>
@@ -2589,17 +2545,17 @@
       <c r="D24" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="19" t="s">
         <v>68</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I24" s="13" t="b">
         <v>1</v>
@@ -2631,15 +2587,15 @@
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
     </row>
-    <row r="25" spans="2:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:36" ht="30" customHeight="1" thickBot="1">
       <c r="B25" s="20"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I25" s="13" t="b">
         <v>1</v>
@@ -2671,7 +2627,7 @@
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
     </row>
-    <row r="26" spans="2:36" ht="66" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:36" ht="36.75" thickBot="1">
       <c r="B26" s="14" t="s">
         <v>69</v>
       </c>
@@ -2723,27 +2679,27 @@
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
     </row>
-    <row r="27" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:36" ht="18.75" thickBot="1">
       <c r="B27" s="20" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="24" t="s">
-        <v>151</v>
+      <c r="G27" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I27" s="13" t="b">
         <v>1</v>
@@ -2775,15 +2731,15 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
     </row>
-    <row r="28" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:36" ht="18.75" thickBot="1">
       <c r="B28" s="20"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="15" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I28" s="13" t="b">
         <v>1</v>
@@ -2815,27 +2771,27 @@
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
     </row>
-    <row r="29" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:36" ht="18.75" thickBot="1">
       <c r="B29" s="20" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="24" t="s">
-        <v>157</v>
+      <c r="G29" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I29" s="13" t="b">
         <v>1</v>
@@ -2867,15 +2823,15 @@
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
     </row>
-    <row r="30" spans="2:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:36" ht="30" customHeight="1" thickBot="1">
       <c r="B30" s="20"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
       <c r="H30" s="15" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I30" s="13" t="b">
         <v>1</v>
@@ -2907,27 +2863,27 @@
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
     </row>
-    <row r="31" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:36" ht="36.75" thickBot="1">
       <c r="B31" s="20" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="24" t="s">
-        <v>163</v>
+      <c r="G31" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I31" s="13" t="b">
         <v>1</v>
@@ -2959,15 +2915,15 @@
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
     </row>
-    <row r="32" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:36" ht="18.75" thickBot="1">
       <c r="B32" s="20"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="15" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I32" s="13" t="b">
         <v>1</v>
@@ -2999,27 +2955,27 @@
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
     </row>
-    <row r="33" spans="2:36" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:36" ht="45" customHeight="1" thickBot="1">
       <c r="B33" s="20" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G33" s="24" t="s">
-        <v>169</v>
+      <c r="G33" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I33" s="13" t="b">
         <v>1</v>
@@ -3051,15 +3007,15 @@
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
     </row>
-    <row r="34" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:36" ht="18.75" thickBot="1">
       <c r="B34" s="20"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="15" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I34" s="13" t="b">
         <v>1</v>
@@ -3091,15 +3047,15 @@
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6"/>
     </row>
-    <row r="35" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:36" ht="36.75" thickBot="1">
       <c r="B35" s="14" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>53</v>
@@ -3108,10 +3064,10 @@
         <v>107</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="I35" s="13" t="b">
         <v>0</v>
@@ -3143,27 +3099,27 @@
       <c r="AI35" s="6"/>
       <c r="AJ35" s="6"/>
     </row>
-    <row r="36" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:36" ht="18.75" thickBot="1">
       <c r="B36" s="20" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="24" t="s">
-        <v>180</v>
+      <c r="G36" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I36" s="13" t="b">
         <v>0</v>
@@ -3195,15 +3151,15 @@
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
     </row>
-    <row r="37" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:36" ht="18.75" thickBot="1">
       <c r="B37" s="20"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
       <c r="H37" s="15" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="I37" s="13" t="b">
         <v>0</v>
@@ -3235,7 +3191,7 @@
       <c r="AI37" s="6"/>
       <c r="AJ37" s="6"/>
     </row>
-    <row r="38" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:36" ht="36.75" thickBot="1">
       <c r="B38" s="14" t="s">
         <v>72</v>
       </c>
@@ -3287,7 +3243,7 @@
       <c r="AI38" s="6"/>
       <c r="AJ38" s="6"/>
     </row>
-    <row r="39" spans="2:36" ht="66" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:36" ht="36.75" thickBot="1">
       <c r="B39" s="14" t="s">
         <v>75</v>
       </c>
@@ -3339,7 +3295,7 @@
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
     </row>
-    <row r="40" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:36" ht="18.75" thickBot="1">
       <c r="B40" s="20" t="s">
         <v>89</v>
       </c>
@@ -3349,17 +3305,17 @@
       <c r="D40" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="19" t="s">
         <v>92</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I40" s="13" t="b">
         <v>1</v>
@@ -3391,15 +3347,15 @@
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6"/>
     </row>
-    <row r="41" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:36" ht="18.75" thickBot="1">
       <c r="B41" s="20"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
       <c r="H41" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I41" s="13" t="b">
         <v>1</v>
@@ -3431,7 +3387,7 @@
       <c r="AI41" s="6"/>
       <c r="AJ41" s="6"/>
     </row>
-    <row r="42" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:36" ht="36.75" thickBot="1">
       <c r="B42" s="20" t="s">
         <v>93</v>
       </c>
@@ -3441,17 +3397,17 @@
       <c r="D42" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="19" t="s">
         <v>96</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I42" s="13" t="b">
         <v>1</v>
@@ -3483,15 +3439,15 @@
       <c r="AI42" s="6"/>
       <c r="AJ42" s="6"/>
     </row>
-    <row r="43" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:36" ht="18.75" thickBot="1">
       <c r="B43" s="20"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
       <c r="H43" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I43" s="13" t="b">
         <v>1</v>
@@ -3523,7 +3479,7 @@
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6"/>
     </row>
-    <row r="44" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:36" ht="18.75" thickBot="1">
       <c r="B44" s="20" t="s">
         <v>98</v>
       </c>
@@ -3533,17 +3489,17 @@
       <c r="D44" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="19" t="s">
         <v>101</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I44" s="13" t="b">
         <v>1</v>
@@ -3575,15 +3531,15 @@
       <c r="AI44" s="6"/>
       <c r="AJ44" s="6"/>
     </row>
-    <row r="45" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:36" ht="18.75" thickBot="1">
       <c r="B45" s="20"/>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
       <c r="H45" s="15" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I45" s="13" t="b">
         <v>1</v>
@@ -3615,7 +3571,7 @@
       <c r="AI45" s="6"/>
       <c r="AJ45" s="6"/>
     </row>
-    <row r="46" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:36" ht="36.75" thickBot="1">
       <c r="B46" s="20" t="s">
         <v>102</v>
       </c>
@@ -3625,17 +3581,17 @@
       <c r="D46" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="19" t="s">
         <v>105</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I46" s="13" t="b">
         <v>1</v>
@@ -3667,15 +3623,15 @@
       <c r="AI46" s="6"/>
       <c r="AJ46" s="6"/>
     </row>
-    <row r="47" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:36" ht="18.75" thickBot="1">
       <c r="B47" s="20"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
       <c r="H47" s="15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I47" s="13" t="b">
         <v>1</v>
@@ -3707,27 +3663,27 @@
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6"/>
     </row>
-    <row r="48" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:36" ht="36.75" thickBot="1">
       <c r="B48" s="20" t="s">
         <v>106</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="E48" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="19" t="s">
         <v>108</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I48" s="13" t="b">
         <v>0</v>
@@ -3759,15 +3715,15 @@
       <c r="AI48" s="6"/>
       <c r="AJ48" s="6"/>
     </row>
-    <row r="49" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:36" ht="18.75" thickBot="1">
       <c r="B49" s="20"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
       <c r="H49" s="15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I49" s="13" t="b">
         <v>0</v>
@@ -3799,27 +3755,27 @@
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
     </row>
-    <row r="50" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:36" ht="18.75" thickBot="1">
       <c r="B50" s="20" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="E50" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G50" s="24" t="s">
-        <v>190</v>
+      <c r="G50" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I50" s="13" t="b">
         <v>0</v>
@@ -3851,15 +3807,15 @@
       <c r="AI50" s="6"/>
       <c r="AJ50" s="6"/>
     </row>
-    <row r="51" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:36" ht="18.75" thickBot="1">
       <c r="B51" s="20"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
       <c r="H51" s="15" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I51" s="13" t="b">
         <v>0</v>
@@ -3891,27 +3847,27 @@
       <c r="AI51" s="6"/>
       <c r="AJ51" s="6"/>
     </row>
-    <row r="52" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:36" ht="30" customHeight="1" thickBot="1">
       <c r="B52" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="24" t="s">
-        <v>112</v>
-      </c>
       <c r="H52" s="15" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="I52" s="13" t="b">
         <v>0</v>
@@ -3943,15 +3899,15 @@
       <c r="AI52" s="6"/>
       <c r="AJ52" s="6"/>
     </row>
-    <row r="53" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:36" ht="18.75" thickBot="1">
       <c r="B53" s="20"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
       <c r="H53" s="15" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="I53" s="13" t="b">
         <v>0</v>
@@ -3983,27 +3939,27 @@
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
     </row>
-    <row r="54" spans="2:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:36" ht="36.75" thickBot="1">
       <c r="B54" s="20" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="24" t="s">
-        <v>112</v>
+      <c r="G54" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I54" s="13" t="b">
         <v>0</v>
@@ -4035,15 +3991,15 @@
       <c r="AI54" s="6"/>
       <c r="AJ54" s="6"/>
     </row>
-    <row r="55" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:36" ht="18.75" thickBot="1">
       <c r="B55" s="20"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
       <c r="H55" s="15" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I55" s="13" t="b">
         <v>0</v>
@@ -4075,27 +4031,27 @@
       <c r="AI55" s="6"/>
       <c r="AJ55" s="6"/>
     </row>
-    <row r="56" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>117</v>
+    <row r="56" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B56" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="I56" s="13" t="b">
         <v>0</v>
@@ -4127,27 +4083,15 @@
       <c r="AI56" s="6"/>
       <c r="AJ56" s="6"/>
     </row>
-    <row r="57" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>113</v>
-      </c>
+    <row r="57" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B57" s="20"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
       <c r="H57" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I57" s="13" t="b">
         <v>0</v>
@@ -4179,15 +4123,27 @@
       <c r="AI57" s="6"/>
       <c r="AJ57" s="6"/>
     </row>
-    <row r="58" spans="2:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="20"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
+    <row r="58" spans="2:36" ht="36.75" thickBot="1">
+      <c r="B58" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>109</v>
+      </c>
       <c r="H58" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I58" s="13" t="b">
         <v>0</v>
@@ -4219,27 +4175,15 @@
       <c r="AI58" s="6"/>
       <c r="AJ58" s="6"/>
     </row>
-    <row r="59" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>41</v>
-      </c>
+    <row r="59" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B59" s="20"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
       <c r="H59" s="15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I59" s="13" t="b">
         <v>0</v>
@@ -4271,15 +4215,27 @@
       <c r="AI59" s="6"/>
       <c r="AJ59" s="6"/>
     </row>
-    <row r="60" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="20"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
+    <row r="60" spans="2:36" thickBot="1">
+      <c r="B60" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="H60" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I60" s="13" t="b">
         <v>0</v>
@@ -4311,27 +4267,27 @@
       <c r="AI60" s="6"/>
       <c r="AJ60" s="6"/>
     </row>
-    <row r="61" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:36" ht="18.75" thickBot="1">
       <c r="B61" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="D61" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="E61" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H61" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="I61" s="13" t="b">
         <v>0</v>
@@ -4363,15 +4319,15 @@
       <c r="AI61" s="6"/>
       <c r="AJ61" s="6"/>
     </row>
-    <row r="62" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:36" ht="18.75" thickBot="1">
       <c r="B62" s="20"/>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
       <c r="H62" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I62" s="13" t="b">
         <v>0</v>
@@ -4403,27 +4359,27 @@
       <c r="AI62" s="6"/>
       <c r="AJ62" s="6"/>
     </row>
-    <row r="63" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:36" ht="18.75" thickBot="1">
       <c r="B63" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="D63" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="E63" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H63" s="18" t="s">
         <v>212</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F63" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="I63" s="13" t="b">
         <v>0</v>
@@ -4455,15 +4411,15 @@
       <c r="AI63" s="6"/>
       <c r="AJ63" s="6"/>
     </row>
-    <row r="64" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:36" ht="18.75" thickBot="1">
       <c r="B64" s="20"/>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="15" t="s">
-        <v>214</v>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="18" t="s">
+        <v>213</v>
       </c>
       <c r="I64" s="13" t="b">
         <v>0</v>
@@ -4495,27 +4451,27 @@
       <c r="AI64" s="6"/>
       <c r="AJ64" s="6"/>
     </row>
-    <row r="65" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="14" t="s">
+    <row r="65" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B65" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="D65" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="E65" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="H65" s="15" t="s">
         <v>217</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>218</v>
       </c>
       <c r="I65" s="13" t="b">
         <v>0</v>
@@ -4547,27 +4503,15 @@
       <c r="AI65" s="6"/>
       <c r="AJ65" s="6"/>
     </row>
-    <row r="66" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="24" t="s">
-        <v>112</v>
-      </c>
+    <row r="66" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B66" s="20"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
       <c r="H66" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I66" s="13" t="b">
         <v>0</v>
@@ -4599,15 +4543,27 @@
       <c r="AI66" s="6"/>
       <c r="AJ66" s="6"/>
     </row>
-    <row r="67" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="20"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
+    <row r="67" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B67" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>109</v>
+      </c>
       <c r="H67" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I67" s="13" t="b">
         <v>0</v>
@@ -4639,27 +4595,15 @@
       <c r="AI67" s="6"/>
       <c r="AJ67" s="6"/>
     </row>
-    <row r="68" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="E68" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F68" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="H68" s="18" t="s">
-        <v>227</v>
+    <row r="68" spans="2:36" ht="36.75" thickBot="1">
+      <c r="B68" s="20"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="I68" s="13" t="b">
         <v>0</v>
@@ -4691,15 +4635,27 @@
       <c r="AI68" s="6"/>
       <c r="AJ68" s="6"/>
     </row>
-    <row r="69" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="20"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="18" t="s">
-        <v>228</v>
+    <row r="69" spans="2:36" ht="36.75" thickBot="1">
+      <c r="B69" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="I69" s="13" t="b">
         <v>0</v>
@@ -4731,27 +4687,15 @@
       <c r="AI69" s="6"/>
       <c r="AJ69" s="6"/>
     </row>
-    <row r="70" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="G70" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>232</v>
+    <row r="70" spans="2:36" ht="18.75" thickBot="1">
+      <c r="B70" s="21"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="17" t="s">
+        <v>226</v>
       </c>
       <c r="I70" s="13" t="b">
         <v>0</v>
@@ -4783,19 +4727,7 @@
       <c r="AI70" s="6"/>
       <c r="AJ70" s="6"/>
     </row>
-    <row r="71" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="20"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="I71" s="13" t="b">
-        <v>0</v>
-      </c>
+    <row r="71" spans="2:36">
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
@@ -4823,31 +4755,7 @@
       <c r="AI71" s="6"/>
       <c r="AJ71" s="6"/>
     </row>
-    <row r="72" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="E72" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F72" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="I72" s="13" t="b">
-        <v>0</v>
-      </c>
+    <row r="72" spans="2:36">
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
@@ -4875,19 +4783,7 @@
       <c r="AI72" s="6"/>
       <c r="AJ72" s="6"/>
     </row>
-    <row r="73" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="20"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="I73" s="13" t="b">
-        <v>0</v>
-      </c>
+    <row r="73" spans="2:36">
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
@@ -4915,31 +4811,7 @@
       <c r="AI73" s="6"/>
       <c r="AJ73" s="6"/>
     </row>
-    <row r="74" spans="2:36" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="E74" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F74" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="I74" s="13" t="b">
-        <v>0</v>
-      </c>
+    <row r="74" spans="2:36">
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
@@ -4967,19 +4839,7 @@
       <c r="AI74" s="6"/>
       <c r="AJ74" s="6"/>
     </row>
-    <row r="75" spans="2:36" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="34"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="I75" s="13" t="b">
-        <v>0</v>
-      </c>
+    <row r="75" spans="2:36">
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
@@ -5007,7 +4867,7 @@
       <c r="AI75" s="6"/>
       <c r="AJ75" s="6"/>
     </row>
-    <row r="76" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:36">
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
@@ -5035,7 +4895,7 @@
       <c r="AI76" s="6"/>
       <c r="AJ76" s="6"/>
     </row>
-    <row r="77" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:36">
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
@@ -5063,7 +4923,7 @@
       <c r="AI77" s="6"/>
       <c r="AJ77" s="6"/>
     </row>
-    <row r="78" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:36">
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
@@ -5091,7 +4951,7 @@
       <c r="AI78" s="6"/>
       <c r="AJ78" s="6"/>
     </row>
-    <row r="79" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:36">
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
@@ -5119,7 +4979,7 @@
       <c r="AI79" s="6"/>
       <c r="AJ79" s="6"/>
     </row>
-    <row r="80" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:36">
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
@@ -5147,7 +5007,7 @@
       <c r="AI80" s="6"/>
       <c r="AJ80" s="6"/>
     </row>
-    <row r="81" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="11:36">
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
@@ -5175,7 +5035,7 @@
       <c r="AI81" s="6"/>
       <c r="AJ81" s="6"/>
     </row>
-    <row r="82" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="11:36">
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
@@ -5203,7 +5063,7 @@
       <c r="AI82" s="6"/>
       <c r="AJ82" s="6"/>
     </row>
-    <row r="83" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="11:36">
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
@@ -5231,7 +5091,7 @@
       <c r="AI83" s="6"/>
       <c r="AJ83" s="6"/>
     </row>
-    <row r="84" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="11:36">
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
@@ -5259,7 +5119,7 @@
       <c r="AI84" s="6"/>
       <c r="AJ84" s="6"/>
     </row>
-    <row r="85" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="11:36">
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
@@ -5287,7 +5147,7 @@
       <c r="AI85" s="6"/>
       <c r="AJ85" s="6"/>
     </row>
-    <row r="86" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="11:36">
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
@@ -5315,7 +5175,7 @@
       <c r="AI86" s="6"/>
       <c r="AJ86" s="6"/>
     </row>
-    <row r="87" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="11:36">
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
@@ -5343,7 +5203,7 @@
       <c r="AI87" s="6"/>
       <c r="AJ87" s="6"/>
     </row>
-    <row r="88" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="11:36">
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
@@ -5371,7 +5231,7 @@
       <c r="AI88" s="6"/>
       <c r="AJ88" s="6"/>
     </row>
-    <row r="89" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="11:36">
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
@@ -5399,7 +5259,7 @@
       <c r="AI89" s="6"/>
       <c r="AJ89" s="6"/>
     </row>
-    <row r="90" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="11:36">
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
@@ -5427,7 +5287,7 @@
       <c r="AI90" s="6"/>
       <c r="AJ90" s="6"/>
     </row>
-    <row r="91" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="11:36">
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
@@ -5455,7 +5315,7 @@
       <c r="AI91" s="6"/>
       <c r="AJ91" s="6"/>
     </row>
-    <row r="92" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="11:36">
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
@@ -5483,7 +5343,7 @@
       <c r="AI92" s="6"/>
       <c r="AJ92" s="6"/>
     </row>
-    <row r="93" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="11:36">
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
@@ -5511,7 +5371,7 @@
       <c r="AI93" s="6"/>
       <c r="AJ93" s="6"/>
     </row>
-    <row r="94" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="11:36">
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
@@ -5539,7 +5399,7 @@
       <c r="AI94" s="6"/>
       <c r="AJ94" s="6"/>
     </row>
-    <row r="95" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="11:36">
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
@@ -5567,7 +5427,7 @@
       <c r="AI95" s="6"/>
       <c r="AJ95" s="6"/>
     </row>
-    <row r="96" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="11:36">
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
@@ -5595,7 +5455,7 @@
       <c r="AI96" s="6"/>
       <c r="AJ96" s="6"/>
     </row>
-    <row r="97" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="11:36">
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
@@ -5623,7 +5483,7 @@
       <c r="AI97" s="6"/>
       <c r="AJ97" s="6"/>
     </row>
-    <row r="98" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="11:36">
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
@@ -5651,7 +5511,7 @@
       <c r="AI98" s="6"/>
       <c r="AJ98" s="6"/>
     </row>
-    <row r="99" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="11:36">
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
@@ -5679,7 +5539,7 @@
       <c r="AI99" s="6"/>
       <c r="AJ99" s="6"/>
     </row>
-    <row r="100" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="11:36">
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
@@ -5707,7 +5567,7 @@
       <c r="AI100" s="6"/>
       <c r="AJ100" s="6"/>
     </row>
-    <row r="101" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="11:36">
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
@@ -5735,7 +5595,7 @@
       <c r="AI101" s="6"/>
       <c r="AJ101" s="6"/>
     </row>
-    <row r="102" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="11:36">
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
@@ -5763,7 +5623,7 @@
       <c r="AI102" s="6"/>
       <c r="AJ102" s="6"/>
     </row>
-    <row r="103" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="11:36">
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
@@ -5791,7 +5651,7 @@
       <c r="AI103" s="6"/>
       <c r="AJ103" s="6"/>
     </row>
-    <row r="104" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="11:36">
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
@@ -5819,7 +5679,7 @@
       <c r="AI104" s="6"/>
       <c r="AJ104" s="6"/>
     </row>
-    <row r="105" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="11:36">
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
@@ -5847,7 +5707,7 @@
       <c r="AI105" s="6"/>
       <c r="AJ105" s="6"/>
     </row>
-    <row r="106" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="11:36">
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
@@ -5875,7 +5735,7 @@
       <c r="AI106" s="6"/>
       <c r="AJ106" s="6"/>
     </row>
-    <row r="107" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="11:36">
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
@@ -5903,7 +5763,7 @@
       <c r="AI107" s="6"/>
       <c r="AJ107" s="6"/>
     </row>
-    <row r="108" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="11:36">
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
@@ -5931,7 +5791,7 @@
       <c r="AI108" s="6"/>
       <c r="AJ108" s="6"/>
     </row>
-    <row r="109" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="11:36">
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
@@ -5959,7 +5819,7 @@
       <c r="AI109" s="6"/>
       <c r="AJ109" s="6"/>
     </row>
-    <row r="110" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="11:36">
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
@@ -5987,7 +5847,7 @@
       <c r="AI110" s="6"/>
       <c r="AJ110" s="6"/>
     </row>
-    <row r="111" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="11:36">
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
@@ -6015,7 +5875,7 @@
       <c r="AI111" s="6"/>
       <c r="AJ111" s="6"/>
     </row>
-    <row r="112" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="11:36">
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
@@ -6043,7 +5903,7 @@
       <c r="AI112" s="6"/>
       <c r="AJ112" s="6"/>
     </row>
-    <row r="113" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="11:36">
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
       <c r="M113" s="6"/>
@@ -6071,7 +5931,7 @@
       <c r="AI113" s="6"/>
       <c r="AJ113" s="6"/>
     </row>
-    <row r="114" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="11:36">
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
       <c r="M114" s="6"/>
@@ -6099,7 +5959,7 @@
       <c r="AI114" s="6"/>
       <c r="AJ114" s="6"/>
     </row>
-    <row r="115" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="11:36">
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
       <c r="M115" s="6"/>
@@ -6127,7 +5987,7 @@
       <c r="AI115" s="6"/>
       <c r="AJ115" s="6"/>
     </row>
-    <row r="116" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="11:36">
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
@@ -6155,7 +6015,7 @@
       <c r="AI116" s="6"/>
       <c r="AJ116" s="6"/>
     </row>
-    <row r="117" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="11:36">
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
       <c r="M117" s="6"/>
@@ -6183,7 +6043,7 @@
       <c r="AI117" s="6"/>
       <c r="AJ117" s="6"/>
     </row>
-    <row r="118" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="11:36">
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
@@ -6211,7 +6071,7 @@
       <c r="AI118" s="6"/>
       <c r="AJ118" s="6"/>
     </row>
-    <row r="119" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="11:36">
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
@@ -6239,7 +6099,7 @@
       <c r="AI119" s="6"/>
       <c r="AJ119" s="6"/>
     </row>
-    <row r="120" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="11:36">
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
@@ -6267,7 +6127,7 @@
       <c r="AI120" s="6"/>
       <c r="AJ120" s="6"/>
     </row>
-    <row r="121" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="11:36">
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
       <c r="M121" s="6"/>
@@ -6295,7 +6155,7 @@
       <c r="AI121" s="6"/>
       <c r="AJ121" s="6"/>
     </row>
-    <row r="122" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="11:36">
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
@@ -6323,7 +6183,7 @@
       <c r="AI122" s="6"/>
       <c r="AJ122" s="6"/>
     </row>
-    <row r="123" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="11:36">
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
@@ -6351,7 +6211,7 @@
       <c r="AI123" s="6"/>
       <c r="AJ123" s="6"/>
     </row>
-    <row r="124" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="11:36">
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
@@ -6379,7 +6239,7 @@
       <c r="AI124" s="6"/>
       <c r="AJ124" s="6"/>
     </row>
-    <row r="125" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="11:36">
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
@@ -6407,7 +6267,7 @@
       <c r="AI125" s="6"/>
       <c r="AJ125" s="6"/>
     </row>
-    <row r="126" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="11:36">
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
@@ -6435,7 +6295,7 @@
       <c r="AI126" s="6"/>
       <c r="AJ126" s="6"/>
     </row>
-    <row r="127" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="11:36">
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
       <c r="M127" s="6"/>
@@ -6463,7 +6323,7 @@
       <c r="AI127" s="6"/>
       <c r="AJ127" s="6"/>
     </row>
-    <row r="128" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="11:36">
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
       <c r="M128" s="6"/>
@@ -6491,7 +6351,7 @@
       <c r="AI128" s="6"/>
       <c r="AJ128" s="6"/>
     </row>
-    <row r="129" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="11:36">
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
@@ -6519,7 +6379,7 @@
       <c r="AI129" s="6"/>
       <c r="AJ129" s="6"/>
     </row>
-    <row r="130" spans="11:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="11:36">
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
@@ -6547,310 +6407,8 @@
       <c r="AI130" s="6"/>
       <c r="AJ130" s="6"/>
     </row>
-    <row r="131" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K131" s="6"/>
-      <c r="L131" s="6"/>
-      <c r="M131" s="6"/>
-      <c r="N131" s="6"/>
-      <c r="O131" s="6"/>
-      <c r="P131" s="6"/>
-      <c r="Q131" s="6"/>
-      <c r="R131" s="6"/>
-      <c r="S131" s="6"/>
-      <c r="T131" s="6"/>
-      <c r="U131" s="6"/>
-      <c r="V131" s="6"/>
-      <c r="W131" s="6"/>
-      <c r="X131" s="6"/>
-      <c r="Y131" s="6"/>
-      <c r="Z131" s="6"/>
-      <c r="AA131" s="6"/>
-      <c r="AB131" s="6"/>
-      <c r="AC131" s="6"/>
-      <c r="AD131" s="6"/>
-      <c r="AE131" s="6"/>
-      <c r="AF131" s="6"/>
-      <c r="AG131" s="6"/>
-      <c r="AH131" s="6"/>
-      <c r="AI131" s="6"/>
-      <c r="AJ131" s="6"/>
-    </row>
-    <row r="132" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K132" s="6"/>
-      <c r="L132" s="6"/>
-      <c r="M132" s="6"/>
-      <c r="N132" s="6"/>
-      <c r="O132" s="6"/>
-      <c r="P132" s="6"/>
-      <c r="Q132" s="6"/>
-      <c r="R132" s="6"/>
-      <c r="S132" s="6"/>
-      <c r="T132" s="6"/>
-      <c r="U132" s="6"/>
-      <c r="V132" s="6"/>
-      <c r="W132" s="6"/>
-      <c r="X132" s="6"/>
-      <c r="Y132" s="6"/>
-      <c r="Z132" s="6"/>
-      <c r="AA132" s="6"/>
-      <c r="AB132" s="6"/>
-      <c r="AC132" s="6"/>
-      <c r="AD132" s="6"/>
-      <c r="AE132" s="6"/>
-      <c r="AF132" s="6"/>
-      <c r="AG132" s="6"/>
-      <c r="AH132" s="6"/>
-      <c r="AI132" s="6"/>
-      <c r="AJ132" s="6"/>
-    </row>
-    <row r="133" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K133" s="6"/>
-      <c r="L133" s="6"/>
-      <c r="M133" s="6"/>
-      <c r="N133" s="6"/>
-      <c r="O133" s="6"/>
-      <c r="P133" s="6"/>
-      <c r="Q133" s="6"/>
-      <c r="R133" s="6"/>
-      <c r="S133" s="6"/>
-      <c r="T133" s="6"/>
-      <c r="U133" s="6"/>
-      <c r="V133" s="6"/>
-      <c r="W133" s="6"/>
-      <c r="X133" s="6"/>
-      <c r="Y133" s="6"/>
-      <c r="Z133" s="6"/>
-      <c r="AA133" s="6"/>
-      <c r="AB133" s="6"/>
-      <c r="AC133" s="6"/>
-      <c r="AD133" s="6"/>
-      <c r="AE133" s="6"/>
-      <c r="AF133" s="6"/>
-      <c r="AG133" s="6"/>
-      <c r="AH133" s="6"/>
-      <c r="AI133" s="6"/>
-      <c r="AJ133" s="6"/>
-    </row>
-    <row r="134" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K134" s="6"/>
-      <c r="L134" s="6"/>
-      <c r="M134" s="6"/>
-      <c r="N134" s="6"/>
-      <c r="O134" s="6"/>
-      <c r="P134" s="6"/>
-      <c r="Q134" s="6"/>
-      <c r="R134" s="6"/>
-      <c r="S134" s="6"/>
-      <c r="T134" s="6"/>
-      <c r="U134" s="6"/>
-      <c r="V134" s="6"/>
-      <c r="W134" s="6"/>
-      <c r="X134" s="6"/>
-      <c r="Y134" s="6"/>
-      <c r="Z134" s="6"/>
-      <c r="AA134" s="6"/>
-      <c r="AB134" s="6"/>
-      <c r="AC134" s="6"/>
-      <c r="AD134" s="6"/>
-      <c r="AE134" s="6"/>
-      <c r="AF134" s="6"/>
-      <c r="AG134" s="6"/>
-      <c r="AH134" s="6"/>
-      <c r="AI134" s="6"/>
-      <c r="AJ134" s="6"/>
-    </row>
-    <row r="135" spans="11:36" x14ac:dyDescent="0.25">
-      <c r="K135" s="6"/>
-      <c r="L135" s="6"/>
-      <c r="M135" s="6"/>
-      <c r="N135" s="6"/>
-      <c r="O135" s="6"/>
-      <c r="P135" s="6"/>
-      <c r="Q135" s="6"/>
-      <c r="R135" s="6"/>
-      <c r="S135" s="6"/>
-      <c r="T135" s="6"/>
-      <c r="U135" s="6"/>
-      <c r="V135" s="6"/>
-      <c r="W135" s="6"/>
-      <c r="X135" s="6"/>
-      <c r="Y135" s="6"/>
-      <c r="Z135" s="6"/>
-      <c r="AA135" s="6"/>
-      <c r="AB135" s="6"/>
-      <c r="AC135" s="6"/>
-      <c r="AD135" s="6"/>
-      <c r="AE135" s="6"/>
-      <c r="AF135" s="6"/>
-      <c r="AG135" s="6"/>
-      <c r="AH135" s="6"/>
-      <c r="AI135" s="6"/>
-      <c r="AJ135" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="181">
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+  <mergeCells count="169">
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -6870,8 +6428,158 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
   </mergeCells>
-  <conditionalFormatting sqref="I6:I75">
+  <conditionalFormatting sqref="I6:I70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$I6=TRUE</formula>
     </cfRule>
@@ -6889,7 +6597,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="2" customWidth="1"/>
@@ -6898,17 +6606,17 @@
     <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:3" ht="36">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" ht="21">
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6916,7 +6624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="45">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -6924,7 +6632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="90">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -6932,7 +6640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="45">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
@@ -6940,7 +6648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="225">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -6948,7 +6656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="50.25" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -6956,7 +6664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="60">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -6964,7 +6672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="60">
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
@@ -6972,7 +6680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="30">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
